--- a/reports/changes-fim.xlsx
+++ b/reports/changes-fim.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/malcalakovalski/Documents/GitHub/Fiscal-Impact-Measure/reports/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C0C43BC-66C8-DD4E-AA05-09338FB8E476}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC8F4C5-2850-4841-922F-9BA6ADA4D507}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="460" windowWidth="28620" windowHeight="18580" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2180" yWindow="740" windowWidth="28620" windowHeight="18580" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="changes" sheetId="1" r:id="rId1"/>
@@ -242,12 +242,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -262,13 +268,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -609,11 +624,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BI21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AM2" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="AS2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AQ15" sqref="AQ15"/>
+      <selection pane="bottomRight" activeCell="AZ14" sqref="AZ14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3558,247 +3573,247 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:61" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+    <row r="13" spans="1:61" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="4">
         <v>44104</v>
       </c>
-      <c r="B13" s="3">
+      <c r="B13" s="5">
         <f>dec!B13-nov!B13</f>
         <v>0.11601688042575908</v>
       </c>
-      <c r="C13" s="3">
+      <c r="C13" s="5">
         <f>dec!C13-nov!C13</f>
         <v>2.9004220106440215E-2</v>
       </c>
-      <c r="D13" s="3">
+      <c r="D13" s="5">
         <f>dec!D13-nov!D13</f>
         <v>0</v>
       </c>
-      <c r="E13" s="3">
+      <c r="E13" s="5">
         <f>dec!E13-nov!E13</f>
         <v>13.200000000000728</v>
       </c>
-      <c r="F13" s="3">
+      <c r="F13" s="5">
         <f>dec!F13-nov!F13</f>
         <v>-1.0632642211593976E-4</v>
       </c>
-      <c r="G13" s="3">
+      <c r="G13" s="5">
         <f>dec!G13-nov!G13</f>
         <v>0</v>
       </c>
-      <c r="H13" s="3">
+      <c r="H13" s="5">
         <f>dec!H13-nov!H13</f>
         <v>-1.0632642211594323E-4</v>
       </c>
-      <c r="I13" s="3">
+      <c r="I13" s="5">
         <f>dec!I13-nov!I13</f>
         <v>7.2999999999992724</v>
       </c>
-      <c r="J13" s="3">
+      <c r="J13" s="5">
         <f>dec!J13-nov!J13</f>
         <v>-1.7204690541960943E-4</v>
       </c>
-      <c r="K13" s="3">
+      <c r="K13" s="5">
         <f>dec!K13-nov!K13</f>
         <v>0.20000000000004547</v>
       </c>
-      <c r="L13" s="3">
+      <c r="L13" s="5">
         <f>dec!L13-nov!L13</f>
         <v>0</v>
       </c>
-      <c r="M13" s="3">
+      <c r="M13" s="5">
         <f>dec!M13-nov!M13</f>
         <v>0</v>
       </c>
-      <c r="N13" s="3">
+      <c r="N13" s="5">
         <f>dec!N13-nov!N13</f>
         <v>0</v>
       </c>
-      <c r="O13" s="3">
+      <c r="O13" s="5">
         <f>dec!O13-nov!O13</f>
         <v>2.9767577086602159E-2</v>
       </c>
-      <c r="P13" s="3">
+      <c r="P13" s="5">
         <f>dec!P13-nov!P13</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="3">
+      <c r="Q13" s="5">
         <f>dec!Q13-nov!Q13</f>
         <v>2.975626910486362E-4</v>
       </c>
-      <c r="R13" s="3">
+      <c r="R13" s="5">
         <f>dec!R13-nov!R13</f>
         <v>-9.9999999999909051E-2</v>
       </c>
-      <c r="S13" s="3">
+      <c r="S13" s="5">
         <f>dec!S13-nov!S13</f>
         <v>-2.2419784597627057E-4</v>
       </c>
-      <c r="T13" s="3">
+      <c r="T13" s="5">
         <f>dec!T13-nov!T13</f>
         <v>-2.5040799233222444E-4</v>
       </c>
-      <c r="U13" s="3">
+      <c r="U13" s="5">
         <f>dec!U13-nov!U13</f>
         <v>-7.7150572200146428E-5</v>
       </c>
-      <c r="V13" s="3">
+      <c r="V13" s="5">
         <f>dec!V13-nov!V13</f>
         <v>2.975626910486362E-4</v>
       </c>
-      <c r="W13" s="3">
+      <c r="W13" s="5">
         <f>dec!W13-nov!W13</f>
         <v>-2.2419784597627057E-4</v>
       </c>
-      <c r="X13" s="3">
+      <c r="X13" s="5">
         <f>dec!X13-nov!X13</f>
         <v>-2.5040799233222444E-4</v>
       </c>
-      <c r="Y13" s="3">
+      <c r="Y13" s="5">
         <f>dec!Y13-nov!Y13</f>
         <v>-7.7150572200146428E-5</v>
       </c>
-      <c r="Z13" s="3">
+      <c r="Z13" s="5">
         <f>dec!Z13-nov!Z13</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="3">
+      <c r="AA13" s="5">
         <f>dec!AA13-nov!AA13</f>
         <v>-7.5999999999999091</v>
       </c>
-      <c r="AB13" s="3">
+      <c r="AB13" s="5">
         <f>dec!AB13-nov!AB13</f>
         <v>-7.5999999999999091</v>
       </c>
-      <c r="AC13" s="3">
+      <c r="AC13" s="5">
         <f>dec!AC13-nov!AC13</f>
         <v>112.654</v>
       </c>
-      <c r="AD13" s="3">
+      <c r="AD13" s="5">
         <f>dec!AD13-nov!AD13</f>
         <v>-0.7000000000007276</v>
       </c>
-      <c r="AE13" s="3">
+      <c r="AE13" s="5">
         <f>dec!AE13-nov!AE13</f>
         <v>22.5</v>
       </c>
-      <c r="AF13" s="3">
+      <c r="AF13" s="5">
         <f>dec!AF13-nov!AF13</f>
         <v>7.3000000000001819</v>
       </c>
-      <c r="AG13" s="3">
+      <c r="AG13" s="5">
         <f>dec!AG13-nov!AG13</f>
         <v>0.59999999999990905</v>
       </c>
-      <c r="AH13" s="3">
+      <c r="AH13" s="5">
         <f>dec!AH13-nov!AH13</f>
         <v>27.200000000000045</v>
       </c>
-      <c r="AI13" s="3">
+      <c r="AI13" s="5">
         <f>dec!AI13-nov!AI13</f>
         <v>35.199999999999818</v>
       </c>
-      <c r="AJ13" s="3">
+      <c r="AJ13" s="5">
         <f>dec!AJ13-nov!AJ13</f>
         <v>12.800000000000011</v>
       </c>
-      <c r="AK13" s="3">
+      <c r="AK13" s="5">
         <f>dec!AK13-nov!AK13</f>
         <v>0.20000000000004547</v>
       </c>
-      <c r="AL13" s="3">
+      <c r="AL13" s="5">
         <f>dec!AL13-nov!AL13</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="3">
+      <c r="AM13" s="5">
         <f>dec!AM13-nov!AM13</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="3">
+      <c r="AN13" s="5">
         <f>dec!AN13-nov!AN13</f>
         <v>0</v>
       </c>
-      <c r="AO13" s="3">
+      <c r="AO13" s="5">
         <f>dec!AO13-nov!AO13</f>
         <v>7.0630000000001019</v>
       </c>
-      <c r="AP13" s="3">
+      <c r="AP13" s="5">
         <f>dec!AP13-nov!AP13</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="3">
+      <c r="AQ13" s="5">
         <f>dec!AQ13-nov!AQ13</f>
         <v>739.00399999999991</v>
       </c>
-      <c r="AR13" s="3">
+      <c r="AR13" s="5">
         <f>dec!AR13-nov!AR13</f>
         <v>0.20000000000004547</v>
       </c>
-      <c r="AS13" s="3">
+      <c r="AS13" s="5">
         <f>dec!AS13-nov!AS13</f>
         <v>0.60000000000013642</v>
       </c>
-      <c r="AT13" s="3">
+      <c r="AT13" s="5">
         <f>dec!AT13-nov!AT13</f>
         <v>0</v>
       </c>
-      <c r="AU13" s="3">
+      <c r="AU13" s="5">
         <f>dec!AU13-nov!AU13</f>
         <v>0.8000000000001819</v>
       </c>
-      <c r="AV13" s="3">
+      <c r="AV13" s="5">
         <f>dec!AV13-nov!AV13</f>
         <v>1.6999999999999886</v>
       </c>
-      <c r="AW13" s="3">
+      <c r="AW13" s="5">
         <f>dec!AW13-nov!AW13</f>
         <v>0.20000000000004547</v>
       </c>
-      <c r="AX13" s="3">
+      <c r="AX13" s="5">
         <f>dec!AX13-nov!AX13</f>
         <v>-7.6000000000000227</v>
       </c>
-      <c r="AY13" s="3">
+      <c r="AY13" s="5">
         <f>dec!AY13-nov!AY13</f>
         <v>-7.6000000000000227</v>
       </c>
-      <c r="AZ13" s="3">
+      <c r="AZ13" s="5">
         <f>dec!AZ13-nov!AZ13</f>
         <v>-739.70399999999995</v>
       </c>
-      <c r="BA13" s="3">
+      <c r="BA13" s="5">
         <f>dec!BA13-nov!BA13</f>
         <v>102.4369999999999</v>
       </c>
-      <c r="BB13" s="3">
+      <c r="BB13" s="5">
         <f>dec!BB13-nov!BB13</f>
         <v>0</v>
       </c>
-      <c r="BC13" s="3">
+      <c r="BC13" s="5">
         <f>dec!BC13-nov!BC13</f>
         <v>-732.10400000000027</v>
       </c>
-      <c r="BD13" s="3">
+      <c r="BD13" s="5">
         <f>dec!BD13-nov!BD13</f>
         <v>7.2000000000000455</v>
       </c>
-      <c r="BE13" s="3">
+      <c r="BE13" s="5">
         <f>dec!BE13-nov!BE13</f>
         <v>0</v>
       </c>
-      <c r="BF13" s="3">
+      <c r="BF13" s="5">
         <f>dec!BF13-nov!BF13</f>
         <v>27.200000000000045</v>
       </c>
-      <c r="BG13" s="3">
+      <c r="BG13" s="5">
         <f>dec!BG13-nov!BG13</f>
         <v>34.399999999999864</v>
       </c>
-      <c r="BH13" s="3">
+      <c r="BH13" s="5">
         <f>dec!BH13-nov!BH13</f>
         <v>11.100000000000009</v>
       </c>
-      <c r="BI13" s="3">
+      <c r="BI13" s="5">
         <f>dec!BI13-nov!BI13</f>
         <v>0</v>
       </c>
@@ -5772,194 +5787,245 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A6AF4FB-DC53-414B-974F-B5A50109F29F}">
   <dimension ref="A1:BI21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="AY1" workbookViewId="0">
+      <selection activeCell="BA11" sqref="BA11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="13.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="20.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="19" max="22" width="14.1640625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="27" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="22.1640625" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="31" max="35" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="36" max="36" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="37" max="38" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="39" max="39" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="40" max="40" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="41" max="41" width="28.6640625" bestFit="1" customWidth="1"/>
+    <col min="42" max="42" width="19.1640625" bestFit="1" customWidth="1"/>
+    <col min="43" max="44" width="19.5" bestFit="1" customWidth="1"/>
+    <col min="45" max="45" width="18.1640625" bestFit="1" customWidth="1"/>
+    <col min="46" max="46" width="21.5" bestFit="1" customWidth="1"/>
+    <col min="47" max="47" width="19.33203125" bestFit="1" customWidth="1"/>
+    <col min="48" max="48" width="20.5" bestFit="1" customWidth="1"/>
+    <col min="49" max="49" width="16.83203125" bestFit="1" customWidth="1"/>
+    <col min="50" max="50" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="51" max="51" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="52" max="52" width="22.6640625" bestFit="1" customWidth="1"/>
+    <col min="53" max="53" width="27" bestFit="1" customWidth="1"/>
+    <col min="54" max="54" width="17.5" bestFit="1" customWidth="1"/>
+    <col min="55" max="56" width="17.83203125" bestFit="1" customWidth="1"/>
+    <col min="57" max="57" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="58" max="58" width="19.83203125" bestFit="1" customWidth="1"/>
+    <col min="59" max="59" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="60" max="60" width="18.83203125" bestFit="1" customWidth="1"/>
+    <col min="61" max="61" width="13.6640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:61" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="8" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="8" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="8" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="1" t="s">
+      <c r="N1" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="1" t="s">
+      <c r="P1" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="1" t="s">
+      <c r="Q1" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="1" t="s">
+      <c r="T1" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="1" t="s">
+      <c r="U1" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="1" t="s">
+      <c r="V1" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="1" t="s">
+      <c r="W1" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="1" t="s">
+      <c r="X1" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="Y1" s="1" t="s">
+      <c r="Y1" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="Z1" s="1" t="s">
+      <c r="Z1" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="AA1" s="1" t="s">
+      <c r="AA1" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="AB1" s="1" t="s">
+      <c r="AB1" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="AC1" s="1" t="s">
+      <c r="AC1" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="AD1" s="1" t="s">
+      <c r="AD1" s="8" t="s">
         <v>29</v>
       </c>
-      <c r="AE1" s="1" t="s">
+      <c r="AE1" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="AF1" s="1" t="s">
+      <c r="AF1" s="8" t="s">
         <v>31</v>
       </c>
-      <c r="AG1" s="1" t="s">
+      <c r="AG1" s="8" t="s">
         <v>32</v>
       </c>
-      <c r="AH1" s="1" t="s">
+      <c r="AH1" s="8" t="s">
         <v>33</v>
       </c>
-      <c r="AI1" s="1" t="s">
+      <c r="AI1" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="AJ1" s="1" t="s">
+      <c r="AJ1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="AK1" s="1" t="s">
+      <c r="AK1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="AL1" s="1" t="s">
+      <c r="AL1" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="AM1" s="1" t="s">
+      <c r="AM1" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="AN1" s="1" t="s">
+      <c r="AN1" s="8" t="s">
         <v>39</v>
       </c>
-      <c r="AO1" s="1" t="s">
+      <c r="AO1" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="AP1" s="1" t="s">
+      <c r="AP1" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="AQ1" s="1" t="s">
+      <c r="AQ1" s="8" t="s">
         <v>42</v>
       </c>
-      <c r="AR1" s="1" t="s">
+      <c r="AR1" s="8" t="s">
         <v>43</v>
       </c>
-      <c r="AS1" s="1" t="s">
+      <c r="AS1" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="AT1" s="1" t="s">
+      <c r="AT1" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="AU1" s="1" t="s">
+      <c r="AU1" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="AV1" s="1" t="s">
+      <c r="AV1" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="AW1" s="1" t="s">
+      <c r="AW1" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="AX1" s="1" t="s">
+      <c r="AX1" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="AY1" s="1" t="s">
+      <c r="AY1" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="AZ1" s="1" t="s">
+      <c r="AZ1" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="BA1" s="1" t="s">
+      <c r="BA1" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="BB1" s="1" t="s">
+      <c r="BB1" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="BC1" s="1" t="s">
+      <c r="BC1" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="BD1" s="1" t="s">
+      <c r="BD1" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="BE1" s="1" t="s">
+      <c r="BE1" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="BF1" s="1" t="s">
+      <c r="BF1" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="BG1" s="1" t="s">
+      <c r="BG1" s="8" t="s">
         <v>58</v>
       </c>
-      <c r="BH1" s="1" t="s">
+      <c r="BH1" s="8" t="s">
         <v>59</v>
       </c>
-      <c r="BI1" s="1" t="s">
+      <c r="BI1" s="8" t="s">
         <v>60</v>
       </c>
     </row>
@@ -5967,184 +6033,184 @@
       <c r="A2" s="2">
         <v>43100</v>
       </c>
-      <c r="B2">
+      <c r="B2" s="7">
         <v>3.9461695522981448E-2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="7">
         <v>-8.1121847837058197E-2</v>
       </c>
-      <c r="D2">
-        <v>0</v>
-      </c>
-      <c r="E2">
+      <c r="D2" s="7">
+        <v>0</v>
+      </c>
+      <c r="E2" s="7">
         <v>19938</v>
       </c>
-      <c r="F2">
+      <c r="F2" s="7">
         <v>1.045949415299985E-2</v>
       </c>
-      <c r="G2">
+      <c r="G2" s="7">
         <v>4.2632137736282596E-3</v>
       </c>
-      <c r="H2">
+      <c r="H2" s="7">
         <v>6.1962803793715882E-3</v>
       </c>
-      <c r="I2">
+      <c r="I2" s="7">
         <v>13596</v>
       </c>
-      <c r="J2">
+      <c r="J2" s="7">
         <v>6.5137061196787194E-3</v>
       </c>
-      <c r="K2">
+      <c r="K2" s="7">
         <v>1288.3</v>
       </c>
-      <c r="L2">
+      <c r="L2" s="7">
         <v>572.9</v>
       </c>
-      <c r="M2">
+      <c r="M2" s="7">
         <v>400.14400000000001</v>
       </c>
-      <c r="N2">
+      <c r="N2" s="7">
         <v>382.98599999999999</v>
       </c>
-      <c r="O2">
+      <c r="O2" s="7">
         <v>189.91399999999999</v>
       </c>
-      <c r="P2">
+      <c r="P2" s="7">
         <v>64.775999999999996</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" s="7">
         <v>7.8206071583555303E-3</v>
       </c>
-      <c r="R2">
+      <c r="R2" s="7">
         <v>2182.9</v>
       </c>
-      <c r="S2">
+      <c r="S2" s="7">
         <v>1.212026394014409E-2</v>
       </c>
-      <c r="T2">
+      <c r="T2" s="7">
         <v>1.3668117849549469E-2</v>
       </c>
-      <c r="U2">
+      <c r="U2" s="7">
         <v>5.1412699580606347E-3</v>
       </c>
-      <c r="V2">
+      <c r="V2" s="7">
         <v>7.8206071583555303E-3</v>
       </c>
-      <c r="W2">
+      <c r="W2" s="7">
         <v>1.212026394014409E-2</v>
       </c>
-      <c r="X2">
+      <c r="X2" s="7">
         <v>1.3668117849549469E-2</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" s="7">
         <v>5.1412699580606347E-3</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" s="7">
         <v>705.8</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" s="7">
         <v>575.79999999999995</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" s="7">
         <v>1281.5999999999999</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" s="7">
         <v>29.8</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" s="7">
         <v>2834.7</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" s="7">
         <v>1553</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" s="7">
         <v>2127.9</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" s="7">
         <v>1328.4</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" s="7">
         <v>1389.8</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" s="7">
         <v>4846</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" s="7">
         <v>278.89999999999998</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" s="7">
         <v>60</v>
       </c>
-      <c r="AL2">
-        <v>0</v>
-      </c>
-      <c r="AM2">
+      <c r="AL2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM2" s="7">
         <v>382.98599999999999</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" s="7">
         <v>1088.7860000000001</v>
       </c>
-      <c r="AO2">
-        <v>0</v>
-      </c>
-      <c r="AP2">
-        <v>0</v>
-      </c>
-      <c r="AQ2">
+      <c r="AO2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP2" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ2" s="7">
         <v>1389.136</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" s="7">
         <v>1650.8</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" s="7">
         <v>1308.2</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" s="7">
         <v>134.30000000000001</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" s="7">
         <v>3093.3</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" s="7">
         <v>223.5</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" s="7">
         <v>59.4</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" s="7">
         <v>192.81399999999999</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" s="7">
         <v>192.81399999999999</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" s="7">
         <v>739.66399999999999</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" s="7">
         <v>29.8</v>
       </c>
-      <c r="BB2">
-        <v>0</v>
-      </c>
-      <c r="BC2">
+      <c r="BB2" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC2" s="7">
         <v>163.864</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" s="7">
         <v>477</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" s="7">
         <v>20.2</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" s="7">
         <v>1255.5</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" s="7">
         <v>1752.7</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" s="7">
         <v>55.4</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -6152,184 +6218,184 @@
       <c r="A3" s="2">
         <v>43190</v>
       </c>
-      <c r="B3">
+      <c r="B3" s="7">
         <v>1.8420651201597041E-2</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="7">
         <v>-2.3876262521828579E-2</v>
       </c>
-      <c r="D3">
-        <v>0</v>
-      </c>
-      <c r="E3">
+      <c r="D3" s="7">
+        <v>0</v>
+      </c>
+      <c r="E3" s="7">
         <v>20242.2</v>
       </c>
-      <c r="F3">
+      <c r="F3" s="7">
         <v>1.039970650629507E-2</v>
       </c>
-      <c r="G3">
+      <c r="G3" s="7">
         <v>4.3704531211683486E-3</v>
       </c>
-      <c r="H3">
+      <c r="H3" s="7">
         <v>6.0292533851267196E-3</v>
       </c>
-      <c r="I3">
+      <c r="I3" s="7">
         <v>13755.5</v>
       </c>
-      <c r="J3">
+      <c r="J3" s="7">
         <v>6.6494966050105742E-3</v>
       </c>
-      <c r="K3">
+      <c r="K3" s="7">
         <v>1308.0999999999999</v>
       </c>
-      <c r="L3">
+      <c r="L3" s="7">
         <v>581.5</v>
       </c>
-      <c r="M3">
+      <c r="M3" s="7">
         <v>411.38400000000001</v>
       </c>
-      <c r="N3">
+      <c r="N3" s="7">
         <v>389.19499999999999</v>
       </c>
-      <c r="O3">
+      <c r="O3" s="7">
         <v>192.30500000000001</v>
       </c>
-      <c r="P3">
+      <c r="P3" s="7">
         <v>65.084000000000003</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" s="7">
         <v>1.0586814688620331E-2</v>
       </c>
-      <c r="R3">
+      <c r="R3" s="7">
         <v>2213.4</v>
       </c>
-      <c r="S3">
+      <c r="S3" s="7">
         <v>1.1020385895361031E-2</v>
       </c>
-      <c r="T3">
+      <c r="T3" s="7">
         <v>1.135909635709864E-2</v>
       </c>
-      <c r="U3">
+      <c r="U3" s="7">
         <v>9.4613265987719686E-3</v>
       </c>
-      <c r="V3">
+      <c r="V3" s="7">
         <v>1.0586814688620331E-2</v>
       </c>
-      <c r="W3">
+      <c r="W3" s="7">
         <v>1.1020385895361031E-2</v>
       </c>
-      <c r="X3">
+      <c r="X3" s="7">
         <v>1.135909635709864E-2</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" s="7">
         <v>9.4613265987719686E-3</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" s="7">
         <v>716.1</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" s="7">
         <v>581.79999999999995</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" s="7">
         <v>1297.9000000000001</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" s="7">
         <v>29.2</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" s="7">
         <v>2890.9</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" s="7">
         <v>1593</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" s="7">
         <v>2085.6</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" s="7">
         <v>1348.3</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" s="7">
         <v>1418.3</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" s="7">
         <v>4852.0999999999995</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" s="7">
         <v>244.1</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" s="7">
         <v>58.2</v>
       </c>
-      <c r="AL3">
-        <v>0</v>
-      </c>
-      <c r="AM3">
+      <c r="AL3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM3" s="7">
         <v>389.19499999999999</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" s="7">
         <v>1105.2950000000001</v>
       </c>
-      <c r="AO3">
-        <v>0</v>
-      </c>
-      <c r="AP3">
-        <v>0</v>
-      </c>
-      <c r="AQ3">
+      <c r="AO3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP3" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ3" s="7">
         <v>1428.501</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" s="7">
         <v>1598.6</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" s="7">
         <v>1327.8</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" s="7">
         <v>150.1</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" s="7">
         <v>3076.5</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" s="7">
         <v>188.7</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" s="7">
         <v>57.6</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" s="7">
         <v>192.60499999999999</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" s="7">
         <v>192.60499999999999</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" s="7">
         <v>746.29899999999998</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" s="7">
         <v>29.2</v>
       </c>
-      <c r="BB3">
-        <v>0</v>
-      </c>
-      <c r="BC3">
+      <c r="BB3" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC3" s="7">
         <v>164.499</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" s="7">
         <v>487</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" s="7">
         <v>1268.2</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" s="7">
         <v>1775.6</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" s="7">
         <v>55.4</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -6337,184 +6403,184 @@
       <c r="A4" s="2">
         <v>43281</v>
       </c>
-      <c r="B4">
+      <c r="B4" s="7">
         <v>0.42733263131330251</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="7">
         <v>6.4090336064775391E-2</v>
       </c>
-      <c r="D4">
-        <v>0</v>
-      </c>
-      <c r="E4">
+      <c r="D4" s="7">
+        <v>0</v>
+      </c>
+      <c r="E4" s="7">
         <v>20552.7</v>
       </c>
-      <c r="F4">
+      <c r="F4" s="7">
         <v>1.2474854490738039E-2</v>
       </c>
-      <c r="G4">
+      <c r="G4" s="7">
         <v>4.4870786242519056E-3</v>
       </c>
-      <c r="H4">
+      <c r="H4" s="7">
         <v>7.9877758664861354E-3</v>
       </c>
-      <c r="I4">
+      <c r="I4" s="7">
         <v>13939.9</v>
       </c>
-      <c r="J4">
+      <c r="J4" s="7">
         <v>5.5449597618273394E-3</v>
       </c>
-      <c r="K4">
+      <c r="K4" s="7">
         <v>1329.3</v>
       </c>
-      <c r="L4">
+      <c r="L4" s="7">
         <v>578</v>
       </c>
-      <c r="M4">
+      <c r="M4" s="7">
         <v>405.38799999999998</v>
       </c>
-      <c r="N4">
+      <c r="N4" s="7">
         <v>386.85700000000003</v>
       </c>
-      <c r="O4">
+      <c r="O4" s="7">
         <v>191.143</v>
       </c>
-      <c r="P4">
+      <c r="P4" s="7">
         <v>64.960999999999999</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" s="7">
         <v>7.4192771530723336E-3</v>
       </c>
-      <c r="R4">
+      <c r="R4" s="7">
         <v>2250.6999999999998</v>
       </c>
-      <c r="S4">
+      <c r="S4" s="7">
         <v>1.056749707707527E-2</v>
       </c>
-      <c r="T4">
+      <c r="T4" s="7">
         <v>9.8578777730893297E-3</v>
       </c>
-      <c r="U4">
+      <c r="U4" s="7">
         <v>1.379610409622822E-2</v>
       </c>
-      <c r="V4">
+      <c r="V4" s="7">
         <v>7.4192771530723336E-3</v>
       </c>
-      <c r="W4">
+      <c r="W4" s="7">
         <v>1.056749707707527E-2</v>
       </c>
-      <c r="X4">
+      <c r="X4" s="7">
         <v>9.8578777730893297E-3</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" s="7">
         <v>1.379610409622822E-2</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" s="7">
         <v>727.5</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" s="7">
         <v>592.6</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" s="7">
         <v>1320.1</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" s="7">
         <v>27.9</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" s="7">
         <v>2916</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" s="7">
         <v>1595.9</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" s="7">
         <v>2064.4</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" s="7">
         <v>1358</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" s="7">
         <v>1433.1</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" s="7">
         <v>4855.3999999999996</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" s="7">
         <v>265.5</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" s="7">
         <v>57.8</v>
       </c>
-      <c r="AL4">
-        <v>0</v>
-      </c>
-      <c r="AM4">
+      <c r="AL4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM4" s="7">
         <v>386.85700000000003</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" s="7">
         <v>1114.357</v>
       </c>
-      <c r="AO4">
-        <v>0</v>
-      </c>
-      <c r="AP4">
-        <v>0</v>
-      </c>
-      <c r="AQ4">
+      <c r="AO4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP4" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ4" s="7">
         <v>1431.7080000000001</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" s="7">
         <v>1608.9</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" s="7">
         <v>1337.2</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" s="7">
         <v>155.19999999999999</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" s="7">
         <v>3101.3</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" s="7">
         <v>204.7</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" s="7">
         <v>57.2</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" s="7">
         <v>205.74299999999999</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" s="7">
         <v>205.74299999999999</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" s="7">
         <v>756.79199999999992</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" s="7">
         <v>27.9</v>
       </c>
-      <c r="BB4">
-        <v>0</v>
-      </c>
-      <c r="BC4">
+      <c r="BB4" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC4" s="7">
         <v>164.19200000000001</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" s="7">
         <v>455.5</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" s="7">
         <v>20.8</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" s="7">
         <v>1277.8</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" s="7">
         <v>1754.1</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" s="7">
         <v>60.8</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -6522,184 +6588,184 @@
       <c r="A5" s="2">
         <v>43373</v>
       </c>
-      <c r="B5">
+      <c r="B5" s="7">
         <v>0.16529833767558569</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="7">
         <v>0.16262832892836709</v>
       </c>
-      <c r="D5">
-        <v>0</v>
-      </c>
-      <c r="E5">
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7">
         <v>20742.7</v>
       </c>
-      <c r="F5">
+      <c r="F5" s="7">
         <v>9.1789778682844769E-3</v>
       </c>
-      <c r="G5">
+      <c r="G5" s="7">
         <v>4.5858675337862032E-3</v>
       </c>
-      <c r="H5">
+      <c r="H5" s="7">
         <v>4.5931103344982738E-3</v>
       </c>
-      <c r="I5">
+      <c r="I5" s="7">
         <v>14086.3</v>
       </c>
-      <c r="J5">
+      <c r="J5" s="7">
         <v>3.885974408082804E-3</v>
       </c>
-      <c r="K5">
+      <c r="K5" s="7">
         <v>1352</v>
       </c>
-      <c r="L5">
+      <c r="L5" s="7">
         <v>584.29999999999995</v>
       </c>
-      <c r="M5">
+      <c r="M5" s="7">
         <v>414.827</v>
       </c>
-      <c r="N5">
+      <c r="N5" s="7">
         <v>392.51600000000002</v>
       </c>
-      <c r="O5">
+      <c r="O5" s="7">
         <v>191.78399999999991</v>
       </c>
-      <c r="P5">
+      <c r="P5" s="7">
         <v>68.572999999999993</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" s="7">
         <v>5.9762970863253004E-3</v>
       </c>
-      <c r="R5">
+      <c r="R5" s="7">
         <v>2279.1</v>
       </c>
-      <c r="S5">
+      <c r="S5" s="7">
         <v>9.1932541271748658E-3</v>
       </c>
-      <c r="T5">
+      <c r="T5" s="7">
         <v>9.4949369226804414E-3</v>
       </c>
-      <c r="U5">
+      <c r="U5" s="7">
         <v>7.8413490339135361E-3</v>
       </c>
-      <c r="V5">
+      <c r="V5" s="7">
         <v>5.9762970863253004E-3</v>
       </c>
-      <c r="W5">
+      <c r="W5" s="7">
         <v>9.1932541271748658E-3</v>
       </c>
-      <c r="X5">
+      <c r="X5" s="7">
         <v>9.4949369226804414E-3</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" s="7">
         <v>7.8413490339135361E-3</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" s="7">
         <v>739.9</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" s="7">
         <v>595.1</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" s="7">
         <v>1335</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" s="7">
         <v>27.4</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" s="7">
         <v>2935.4</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" s="7">
         <v>1600.4</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" s="7">
         <v>2100.5</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" s="7">
         <v>1374.2</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" s="7">
         <v>1448.7</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" s="7">
         <v>4923.5</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" s="7">
         <v>276.3</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" s="7">
         <v>57.9</v>
       </c>
-      <c r="AL5">
-        <v>0</v>
-      </c>
-      <c r="AM5">
+      <c r="AL5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM5" s="7">
         <v>392.51600000000002</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" s="7">
         <v>1132.4159999999999</v>
       </c>
-      <c r="AO5">
-        <v>0</v>
-      </c>
-      <c r="AP5">
-        <v>0</v>
-      </c>
-      <c r="AQ5">
+      <c r="AO5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP5" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ5" s="7">
         <v>1435.211</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" s="7">
         <v>1628.3</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" s="7">
         <v>1353.1</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" s="7">
         <v>162.1</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" s="7">
         <v>3143.5</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" s="7">
         <v>214.2</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" s="7">
         <v>57.3</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" s="7">
         <v>202.584</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" s="7">
         <v>202.584</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" s="7">
         <v>760.28899999999999</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" s="7">
         <v>27.4</v>
       </c>
-      <c r="BB5">
-        <v>0</v>
-      </c>
-      <c r="BC5">
+      <c r="BB5" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC5" s="7">
         <v>165.18899999999991</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" s="7">
         <v>472.2</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" s="7">
         <v>21.2</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" s="7">
         <v>1286.5999999999999</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" s="7">
         <v>1780</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" s="7">
         <v>62.1</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -6707,184 +6773,184 @@
       <c r="A6" s="2">
         <v>43465</v>
       </c>
-      <c r="B6">
+      <c r="B6" s="7">
         <v>-0.42808247571898578</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="7">
         <v>4.5742286117875328E-2</v>
       </c>
-      <c r="D6">
-        <v>0</v>
-      </c>
-      <c r="E6">
+      <c r="D6" s="7">
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
         <v>20909.900000000001</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="7">
         <v>9.0174139326695268E-3</v>
       </c>
-      <c r="G6">
+      <c r="G6" s="7">
         <v>4.6079480382617E-3</v>
       </c>
-      <c r="H6">
+      <c r="H6" s="7">
         <v>4.4094658944078269E-3</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="7">
         <v>14191.4</v>
       </c>
-      <c r="J6">
+      <c r="J6" s="7">
         <v>3.5760039077981092E-3</v>
       </c>
-      <c r="K6">
+      <c r="K6" s="7">
         <v>1368.4</v>
       </c>
-      <c r="L6">
+      <c r="L6" s="7">
         <v>586.5</v>
       </c>
-      <c r="M6">
+      <c r="M6" s="7">
         <v>409.36099999999999</v>
       </c>
-      <c r="N6">
+      <c r="N6" s="7">
         <v>389.62400000000002</v>
       </c>
-      <c r="O6">
+      <c r="O6" s="7">
         <v>196.876</v>
       </c>
-      <c r="P6">
+      <c r="P6" s="7">
         <v>64.617000000000004</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" s="7">
         <v>7.3574438138064302E-3</v>
       </c>
-      <c r="R6">
+      <c r="R6" s="7">
         <v>2279.6</v>
       </c>
-      <c r="S6">
+      <c r="S6" s="7">
         <v>6.6138732605514061E-3</v>
       </c>
-      <c r="T6">
+      <c r="T6" s="7">
         <v>5.7860483139438026E-3</v>
       </c>
-      <c r="U6">
+      <c r="U6" s="7">
         <v>1.0308729595457811E-2</v>
       </c>
-      <c r="V6">
+      <c r="V6" s="7">
         <v>7.3574438138064302E-3</v>
       </c>
-      <c r="W6">
+      <c r="W6" s="7">
         <v>6.6138732605514061E-3</v>
       </c>
-      <c r="X6">
+      <c r="X6" s="7">
         <v>5.7860483139438026E-3</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" s="7">
         <v>1.0308729595457811E-2</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" s="7">
         <v>753.3</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" s="7">
         <v>589.79999999999995</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" s="7">
         <v>1343.1</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" s="7">
         <v>27</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" s="7">
         <v>2949.4</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" s="7">
         <v>1606.2</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" s="7">
         <v>2090.6999999999998</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" s="7">
         <v>1381.9</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" s="7">
         <v>1479</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" s="7">
         <v>4951.6000000000004</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" s="7">
         <v>298.2</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" s="7">
         <v>79.5</v>
       </c>
-      <c r="AL6">
-        <v>0</v>
-      </c>
-      <c r="AM6">
+      <c r="AL6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM6" s="7">
         <v>389.62400000000002</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" s="7">
         <v>1142.924</v>
       </c>
-      <c r="AO6">
-        <v>0</v>
-      </c>
-      <c r="AP6">
-        <v>0</v>
-      </c>
-      <c r="AQ6">
+      <c r="AO6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP6" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ6" s="7">
         <v>1440.5530000000001</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" s="7">
         <v>1634.2</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" s="7">
         <v>1360.3</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" s="7">
         <v>183.5</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" s="7">
         <v>3178</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" s="7">
         <v>234.7</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" s="7">
         <v>78.900000000000006</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" s="7">
         <v>200.1759999999999</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" s="7">
         <v>200.1759999999999</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" s="7">
         <v>755.447</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" s="7">
         <v>27</v>
       </c>
-      <c r="BB6">
-        <v>0</v>
-      </c>
-      <c r="BC6">
+      <c r="BB6" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC6" s="7">
         <v>165.64699999999999</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" s="7">
         <v>456.5</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" s="7">
         <v>21.6</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" s="7">
         <v>1295.5</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" s="7">
         <v>1773.6</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" s="7">
         <v>63.5</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -6892,184 +6958,184 @@
       <c r="A7" s="2">
         <v>43555</v>
       </c>
-      <c r="B7">
+      <c r="B7" s="7">
         <v>0.21140723104272799</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="7">
         <v>9.3988931078158075E-2</v>
       </c>
-      <c r="D7">
-        <v>0</v>
-      </c>
-      <c r="E7">
+      <c r="D7" s="7">
+        <v>0</v>
+      </c>
+      <c r="E7" s="7">
         <v>21115.3</v>
       </c>
-      <c r="F7">
+      <c r="F7" s="7">
         <v>7.6542625735243064E-3</v>
       </c>
-      <c r="G7">
+      <c r="G7" s="7">
         <v>4.6135731106828892E-3</v>
       </c>
-      <c r="H7">
+      <c r="H7" s="7">
         <v>3.0406894628414172E-3</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="7">
         <v>14276.6</v>
       </c>
-      <c r="J7">
+      <c r="J7" s="7">
         <v>1.4051006070403551E-3</v>
       </c>
-      <c r="K7">
+      <c r="K7" s="7">
         <v>1388.8</v>
       </c>
-      <c r="L7">
+      <c r="L7" s="7">
         <v>594.20000000000005</v>
       </c>
-      <c r="M7">
+      <c r="M7" s="7">
         <v>428.61200000000002</v>
       </c>
-      <c r="N7">
+      <c r="N7" s="7">
         <v>404.529</v>
       </c>
-      <c r="O7">
+      <c r="O7" s="7">
         <v>189.67099999999999</v>
       </c>
-      <c r="P7">
+      <c r="P7" s="7">
         <v>67.605000000000004</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" s="7">
         <v>1.144096245622306E-2</v>
       </c>
-      <c r="R7">
+      <c r="R7" s="7">
         <v>2292.6999999999998</v>
       </c>
-      <c r="S7">
+      <c r="S7" s="7">
         <v>-2.0499702141079101E-3</v>
       </c>
-      <c r="T7">
+      <c r="T7" s="7">
         <v>-3.4849307391905389E-3</v>
       </c>
-      <c r="U7">
+      <c r="U7" s="7">
         <v>4.4519766073654043E-3</v>
       </c>
-      <c r="V7">
+      <c r="V7" s="7">
         <v>1.144096245622306E-2</v>
       </c>
-      <c r="W7">
+      <c r="W7" s="7">
         <v>-2.0499702141079101E-3</v>
       </c>
-      <c r="X7">
+      <c r="X7" s="7">
         <v>-3.4849307391905389E-3</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" s="7">
         <v>4.4519766073654043E-3</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" s="7">
         <v>767.4</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" s="7">
         <v>599.4</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" s="7">
         <v>1366.8</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" s="7">
         <v>28</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" s="7">
         <v>3037.5</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" s="7">
         <v>1670.7</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" s="7">
         <v>2170.6999999999998</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" s="7">
         <v>1413.9</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" s="7">
         <v>1473.8</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" s="7">
         <v>5058.3</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" s="7">
         <v>282.3</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" s="7">
         <v>71.3</v>
       </c>
-      <c r="AL7">
-        <v>0</v>
-      </c>
-      <c r="AM7">
+      <c r="AL7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM7" s="7">
         <v>404.529</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" s="7">
         <v>1171.9290000000001</v>
       </c>
-      <c r="AO7">
-        <v>0</v>
-      </c>
-      <c r="AP7">
-        <v>0</v>
-      </c>
-      <c r="AQ7">
+      <c r="AO7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP7" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ7" s="7">
         <v>1503.8430000000001</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" s="7">
         <v>1695.5</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" s="7">
         <v>1391.9</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" s="7">
         <v>172.1</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" s="7">
         <v>3259.5</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" s="7">
         <v>213.8</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" s="7">
         <v>70.7</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" s="7">
         <v>194.87100000000001</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" s="7">
         <v>194.87100000000001</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" s="7">
         <v>766.25700000000006</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" s="7">
         <v>28</v>
       </c>
-      <c r="BB7">
-        <v>0</v>
-      </c>
-      <c r="BC7">
+      <c r="BB7" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC7" s="7">
         <v>166.85700000000011</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" s="7">
         <v>475.2</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" s="7">
         <v>22</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" s="7">
         <v>1301.5999999999999</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" s="7">
         <v>1798.8</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" s="7">
         <v>68.5</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -7077,184 +7143,184 @@
       <c r="A8" s="2">
         <v>43646</v>
       </c>
-      <c r="B8">
+      <c r="B8" s="7">
         <v>0.61396402202406253</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="7">
         <v>0.14064677875584811</v>
       </c>
-      <c r="D8">
-        <v>0</v>
-      </c>
-      <c r="E8">
+      <c r="D8" s="7">
+        <v>0</v>
+      </c>
+      <c r="E8" s="7">
         <v>21329.9</v>
       </c>
-      <c r="F8">
+      <c r="F8" s="7">
         <v>1.0743062791264361E-2</v>
       </c>
-      <c r="G8">
+      <c r="G8" s="7">
         <v>4.6083685842452926E-3</v>
       </c>
-      <c r="H8">
+      <c r="H8" s="7">
         <v>6.1346942070190646E-3</v>
       </c>
-      <c r="I8">
+      <c r="I8" s="7">
         <v>14497.3</v>
       </c>
-      <c r="J8">
+      <c r="J8" s="7">
         <v>6.2728123108526379E-3</v>
       </c>
-      <c r="K8">
+      <c r="K8" s="7">
         <v>1410.6</v>
       </c>
-      <c r="L8">
+      <c r="L8" s="7">
         <v>612.5</v>
       </c>
-      <c r="M8">
+      <c r="M8" s="7">
         <v>439.93900000000002</v>
       </c>
-      <c r="N8">
+      <c r="N8" s="7">
         <v>419.67200000000003</v>
       </c>
-      <c r="O8">
+      <c r="O8" s="7">
         <v>192.828</v>
       </c>
-      <c r="P8">
+      <c r="P8" s="7">
         <v>66.614000000000004</v>
       </c>
-      <c r="Q8">
+      <c r="Q8" s="7">
         <v>-6.4406749253222983E-3</v>
       </c>
-      <c r="R8">
+      <c r="R8" s="7">
         <v>2327</v>
       </c>
-      <c r="S8">
+      <c r="S8" s="7">
         <v>8.5678669873763269E-3</v>
       </c>
-      <c r="T8">
+      <c r="T8" s="7">
         <v>7.7235343736818951E-3</v>
       </c>
-      <c r="U8">
+      <c r="U8" s="7">
         <v>1.227390745613666E-2</v>
       </c>
-      <c r="V8">
+      <c r="V8" s="7">
         <v>-6.4406749253222983E-3</v>
       </c>
-      <c r="W8">
+      <c r="W8" s="7">
         <v>8.5678669873763269E-3</v>
       </c>
-      <c r="X8">
+      <c r="X8" s="7">
         <v>7.7235343736818951E-3</v>
       </c>
-      <c r="Y8">
+      <c r="Y8" s="7">
         <v>1.227390745613666E-2</v>
       </c>
-      <c r="Z8">
+      <c r="Z8" s="7">
         <v>779.7</v>
       </c>
-      <c r="AA8">
+      <c r="AA8" s="7">
         <v>615</v>
       </c>
-      <c r="AB8">
+      <c r="AB8" s="7">
         <v>1394.7</v>
       </c>
-      <c r="AC8">
+      <c r="AC8" s="7">
         <v>27.5</v>
       </c>
-      <c r="AD8">
+      <c r="AD8" s="7">
         <v>3071</v>
       </c>
-      <c r="AE8">
+      <c r="AE8" s="7">
         <v>1676.3</v>
       </c>
-      <c r="AF8">
+      <c r="AF8" s="7">
         <v>2222.5</v>
       </c>
-      <c r="AG8">
+      <c r="AG8" s="7">
         <v>1419.9</v>
       </c>
-      <c r="AH8">
+      <c r="AH8" s="7">
         <v>1480.7</v>
       </c>
-      <c r="AI8">
+      <c r="AI8" s="7">
         <v>5123.1000000000004</v>
       </c>
-      <c r="AJ8">
+      <c r="AJ8" s="7">
         <v>292.89999999999998</v>
       </c>
-      <c r="AK8">
+      <c r="AK8" s="7">
         <v>61.1</v>
       </c>
-      <c r="AL8">
-        <v>0</v>
-      </c>
-      <c r="AM8">
+      <c r="AL8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM8" s="7">
         <v>419.67200000000003</v>
       </c>
-      <c r="AN8">
+      <c r="AN8" s="7">
         <v>1199.3720000000001</v>
       </c>
-      <c r="AO8">
-        <v>0</v>
-      </c>
-      <c r="AP8">
-        <v>0</v>
-      </c>
-      <c r="AQ8">
+      <c r="AO8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP8" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ8" s="7">
         <v>1509.0050000000001</v>
       </c>
-      <c r="AR8">
+      <c r="AR8" s="7">
         <v>1703.1</v>
       </c>
-      <c r="AS8">
+      <c r="AS8" s="7">
         <v>1397.8</v>
       </c>
-      <c r="AT8">
+      <c r="AT8" s="7">
         <v>168.3</v>
       </c>
-      <c r="AU8">
+      <c r="AU8" s="7">
         <v>3269.2</v>
       </c>
-      <c r="AV8">
+      <c r="AV8" s="7">
         <v>224.2</v>
       </c>
-      <c r="AW8">
+      <c r="AW8" s="7">
         <v>60.5</v>
       </c>
-      <c r="AX8">
+      <c r="AX8" s="7">
         <v>195.328</v>
       </c>
-      <c r="AY8">
+      <c r="AY8" s="7">
         <v>195.328</v>
       </c>
-      <c r="AZ8">
+      <c r="AZ8" s="7">
         <v>782.29500000000007</v>
       </c>
-      <c r="BA8">
+      <c r="BA8" s="7">
         <v>27.5</v>
       </c>
-      <c r="BB8">
-        <v>0</v>
-      </c>
-      <c r="BC8">
+      <c r="BB8" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC8" s="7">
         <v>167.2950000000001</v>
       </c>
-      <c r="BD8">
+      <c r="BD8" s="7">
         <v>519.4</v>
       </c>
-      <c r="BE8">
+      <c r="BE8" s="7">
         <v>22.1</v>
       </c>
-      <c r="BF8">
+      <c r="BF8" s="7">
         <v>1312.4</v>
       </c>
-      <c r="BG8">
+      <c r="BG8" s="7">
         <v>1853.9</v>
       </c>
-      <c r="BH8">
+      <c r="BH8" s="7">
         <v>68.7</v>
       </c>
-      <c r="BI8">
+      <c r="BI8" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -7262,184 +7328,184 @@
       <c r="A9" s="2">
         <v>43738</v>
       </c>
-      <c r="B9">
+      <c r="B9" s="7">
         <v>0.40012011192207908</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="7">
         <v>0.19935222231747149</v>
       </c>
-      <c r="D9">
-        <v>0</v>
-      </c>
-      <c r="E9">
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7">
         <v>21540.3</v>
       </c>
-      <c r="F9">
+      <c r="F9" s="7">
         <v>8.3347894633178932E-3</v>
       </c>
-      <c r="G9">
+      <c r="G9" s="7">
         <v>4.5819257876509312E-3</v>
       </c>
-      <c r="H9">
+      <c r="H9" s="7">
         <v>3.752863675666962E-3</v>
       </c>
-      <c r="I9">
+      <c r="I9" s="7">
         <v>14645.3</v>
       </c>
-      <c r="J9">
+      <c r="J9" s="7">
         <v>3.4813991214479589E-3</v>
       </c>
-      <c r="K9">
+      <c r="K9" s="7">
         <v>1429.3</v>
       </c>
-      <c r="L9">
+      <c r="L9" s="7">
         <v>610.29999999999995</v>
       </c>
-      <c r="M9">
+      <c r="M9" s="7">
         <v>438.36099999999999</v>
       </c>
-      <c r="N9">
+      <c r="N9" s="7">
         <v>418.82400000000001</v>
       </c>
-      <c r="O9">
+      <c r="O9" s="7">
         <v>191.47599999999991</v>
       </c>
-      <c r="P9">
+      <c r="P9" s="7">
         <v>68.894999999999996</v>
       </c>
-      <c r="Q9">
+      <c r="Q9" s="7">
         <v>1.444551782667336E-3</v>
       </c>
-      <c r="R9">
+      <c r="R9" s="7">
         <v>2337.8000000000002</v>
       </c>
-      <c r="S9">
+      <c r="S9" s="7">
         <v>3.2378797110279578E-3</v>
       </c>
-      <c r="T9">
+      <c r="T9" s="7">
         <v>2.7902029000672619E-3</v>
       </c>
-      <c r="U9">
+      <c r="U9" s="7">
         <v>5.1643881754510623E-3</v>
       </c>
-      <c r="V9">
+      <c r="V9" s="7">
         <v>1.444551782667336E-3</v>
       </c>
-      <c r="W9">
+      <c r="W9" s="7">
         <v>3.2378797110279578E-3</v>
       </c>
-      <c r="X9">
+      <c r="X9" s="7">
         <v>2.7902029000672619E-3</v>
       </c>
-      <c r="Y9">
+      <c r="Y9" s="7">
         <v>5.1643881754510623E-3</v>
       </c>
-      <c r="Z9">
+      <c r="Z9" s="7">
         <v>789.9</v>
       </c>
-      <c r="AA9">
+      <c r="AA9" s="7">
         <v>622.29999999999995</v>
       </c>
-      <c r="AB9">
+      <c r="AB9" s="7">
         <v>1412.2</v>
       </c>
-      <c r="AC9">
+      <c r="AC9" s="7">
         <v>27.6</v>
       </c>
-      <c r="AD9">
+      <c r="AD9" s="7">
         <v>3094.8</v>
       </c>
-      <c r="AE9">
+      <c r="AE9" s="7">
         <v>1682.6</v>
       </c>
-      <c r="AF9">
+      <c r="AF9" s="7">
         <v>2197.1</v>
       </c>
-      <c r="AG9">
+      <c r="AG9" s="7">
         <v>1424.1</v>
       </c>
-      <c r="AH9">
+      <c r="AH9" s="7">
         <v>1501.6</v>
       </c>
-      <c r="AI9">
+      <c r="AI9" s="7">
         <v>5122.8</v>
       </c>
-      <c r="AJ9">
+      <c r="AJ9" s="7">
         <v>271.39999999999998</v>
       </c>
-      <c r="AK9">
+      <c r="AK9" s="7">
         <v>82</v>
       </c>
-      <c r="AL9">
-        <v>0</v>
-      </c>
-      <c r="AM9">
+      <c r="AL9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM9" s="7">
         <v>418.82400000000001</v>
       </c>
-      <c r="AN9">
+      <c r="AN9" s="7">
         <v>1208.7239999999999</v>
       </c>
-      <c r="AO9">
-        <v>0</v>
-      </c>
-      <c r="AP9">
-        <v>0</v>
-      </c>
-      <c r="AQ9">
+      <c r="AO9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP9" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ9" s="7">
         <v>1514.3030000000001</v>
       </c>
-      <c r="AR9">
+      <c r="AR9" s="7">
         <v>1713.2</v>
       </c>
-      <c r="AS9">
+      <c r="AS9" s="7">
         <v>1402.3</v>
       </c>
-      <c r="AT9">
+      <c r="AT9" s="7">
         <v>175.1</v>
       </c>
-      <c r="AU9">
+      <c r="AU9" s="7">
         <v>3290.6</v>
       </c>
-      <c r="AV9">
+      <c r="AV9" s="7">
         <v>201.6</v>
       </c>
-      <c r="AW9">
+      <c r="AW9" s="7">
         <v>81.400000000000006</v>
       </c>
-      <c r="AX9">
+      <c r="AX9" s="7">
         <v>203.47599999999991</v>
       </c>
-      <c r="AY9">
+      <c r="AY9" s="7">
         <v>203.47599999999991</v>
       </c>
-      <c r="AZ9">
+      <c r="AZ9" s="7">
         <v>790.59699999999998</v>
       </c>
-      <c r="BA9">
+      <c r="BA9" s="7">
         <v>27.6</v>
       </c>
-      <c r="BB9">
-        <v>0</v>
-      </c>
-      <c r="BC9">
+      <c r="BB9" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC9" s="7">
         <v>168.29700000000011</v>
       </c>
-      <c r="BD9">
+      <c r="BD9" s="7">
         <v>483.9</v>
       </c>
-      <c r="BE9">
+      <c r="BE9" s="7">
         <v>21.8</v>
       </c>
-      <c r="BF9">
+      <c r="BF9" s="7">
         <v>1326.5</v>
       </c>
-      <c r="BG9">
+      <c r="BG9" s="7">
         <v>1832.2</v>
       </c>
-      <c r="BH9">
+      <c r="BH9" s="7">
         <v>69.8</v>
       </c>
-      <c r="BI9">
+      <c r="BI9" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -7447,184 +7513,184 @@
       <c r="A10" s="2">
         <v>43830</v>
       </c>
-      <c r="B10">
+      <c r="B10" s="7">
         <v>0.48160809427083651</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="7">
         <v>0.42677486481492699</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="7">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="7">
         <v>21747.4</v>
       </c>
-      <c r="F10">
+      <c r="F10" s="7">
         <v>8.0031903570889629E-3</v>
       </c>
-      <c r="G10">
+      <c r="G10" s="7">
         <v>4.5663064651508822E-3</v>
       </c>
-      <c r="H10">
+      <c r="H10" s="7">
         <v>3.4368838919380811E-3</v>
       </c>
-      <c r="I10">
+      <c r="I10" s="7">
         <v>14759.2</v>
       </c>
-      <c r="J10">
+      <c r="J10" s="7">
         <v>3.8235187270678761E-3</v>
       </c>
-      <c r="K10">
+      <c r="K10" s="7">
         <v>1447.9</v>
       </c>
-      <c r="L10">
+      <c r="L10" s="7">
         <v>615.4</v>
       </c>
-      <c r="M10">
+      <c r="M10" s="7">
         <v>436.04</v>
       </c>
-      <c r="N10">
+      <c r="N10" s="7">
         <v>411.40899999999999</v>
       </c>
-      <c r="O10">
+      <c r="O10" s="7">
         <v>203.99100000000001</v>
       </c>
-      <c r="P10">
+      <c r="P10" s="7">
         <v>69.790999999999997</v>
       </c>
-      <c r="Q10">
+      <c r="Q10" s="7">
         <v>3.24555314142505E-3</v>
       </c>
-      <c r="R10">
+      <c r="R10" s="7">
         <v>2357.4</v>
       </c>
-      <c r="S10">
+      <c r="S10" s="7">
         <v>4.7630615467371129E-3</v>
       </c>
-      <c r="T10">
+      <c r="T10" s="7">
         <v>5.5909640282765238E-3</v>
       </c>
-      <c r="U10">
+      <c r="U10" s="7">
         <v>1.1169248481410769E-3</v>
       </c>
-      <c r="V10">
+      <c r="V10" s="7">
         <v>3.24555314142505E-3</v>
       </c>
-      <c r="W10">
+      <c r="W10" s="7">
         <v>4.7630615467371129E-3</v>
       </c>
-      <c r="X10">
+      <c r="X10" s="7">
         <v>5.5909640282765238E-3</v>
       </c>
-      <c r="Y10">
+      <c r="Y10" s="7">
         <v>1.1169248481410769E-3</v>
       </c>
-      <c r="Z10">
+      <c r="Z10" s="7">
         <v>797.9</v>
       </c>
-      <c r="AA10">
+      <c r="AA10" s="7">
         <v>619.4</v>
       </c>
-      <c r="AB10">
+      <c r="AB10" s="7">
         <v>1417.3</v>
       </c>
-      <c r="AC10">
+      <c r="AC10" s="7">
         <v>27.9</v>
       </c>
-      <c r="AD10">
+      <c r="AD10" s="7">
         <v>3108.7</v>
       </c>
-      <c r="AE10">
+      <c r="AE10" s="7">
         <v>1691.4</v>
       </c>
-      <c r="AF10">
+      <c r="AF10" s="7">
         <v>2221.1999999999998</v>
       </c>
-      <c r="AG10">
+      <c r="AG10" s="7">
         <v>1438.1</v>
       </c>
-      <c r="AH10">
+      <c r="AH10" s="7">
         <v>1509.6</v>
       </c>
-      <c r="AI10">
+      <c r="AI10" s="7">
         <v>5168.7000000000007</v>
       </c>
-      <c r="AJ10">
+      <c r="AJ10" s="7">
         <v>300.7</v>
       </c>
-      <c r="AK10">
+      <c r="AK10" s="7">
         <v>81.099999999999994</v>
       </c>
-      <c r="AL10">
-        <v>0</v>
-      </c>
-      <c r="AM10">
+      <c r="AL10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM10" s="7">
         <v>411.40899999999999</v>
       </c>
-      <c r="AN10">
+      <c r="AN10" s="7">
         <v>1209.309</v>
       </c>
-      <c r="AO10">
-        <v>0</v>
-      </c>
-      <c r="AP10">
-        <v>0</v>
-      </c>
-      <c r="AQ10">
+      <c r="AO10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP10" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ10" s="7">
         <v>1522.308</v>
       </c>
-      <c r="AR10">
+      <c r="AR10" s="7">
         <v>1740.2</v>
       </c>
-      <c r="AS10">
+      <c r="AS10" s="7">
         <v>1416.9</v>
       </c>
-      <c r="AT10">
+      <c r="AT10" s="7">
         <v>179.2</v>
       </c>
-      <c r="AU10">
+      <c r="AU10" s="7">
         <v>3336.3</v>
       </c>
-      <c r="AV10">
+      <c r="AV10" s="7">
         <v>229.7</v>
       </c>
-      <c r="AW10">
+      <c r="AW10" s="7">
         <v>80.5</v>
       </c>
-      <c r="AX10">
+      <c r="AX10" s="7">
         <v>207.99100000000001</v>
       </c>
-      <c r="AY10">
+      <c r="AY10" s="7">
         <v>207.99100000000001</v>
       </c>
-      <c r="AZ10">
+      <c r="AZ10" s="7">
         <v>788.49199999999996</v>
       </c>
-      <c r="BA10">
+      <c r="BA10" s="7">
         <v>27.9</v>
       </c>
-      <c r="BB10">
-        <v>0</v>
-      </c>
-      <c r="BC10">
+      <c r="BB10" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC10" s="7">
         <v>169.09200000000001</v>
       </c>
-      <c r="BD10">
+      <c r="BD10" s="7">
         <v>480.9</v>
       </c>
-      <c r="BE10">
+      <c r="BE10" s="7">
         <v>21.1</v>
       </c>
-      <c r="BF10">
+      <c r="BF10" s="7">
         <v>1330.4</v>
       </c>
-      <c r="BG10">
+      <c r="BG10" s="7">
         <v>1832.4</v>
       </c>
-      <c r="BH10">
+      <c r="BH10" s="7">
         <v>71</v>
       </c>
-      <c r="BI10">
+      <c r="BI10" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -7632,184 +7698,184 @@
       <c r="A11" s="2">
         <v>43921</v>
       </c>
-      <c r="B11">
+      <c r="B11" s="7">
         <v>8.5067661658550744E-2</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="7">
         <v>0.39518997246888282</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="7">
         <v>1</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="7">
         <v>21561.1</v>
       </c>
-      <c r="F11">
+      <c r="F11" s="7">
         <v>7.9955540033112005E-3</v>
       </c>
-      <c r="G11">
+      <c r="G11" s="7">
         <v>4.5350401479802294E-3</v>
       </c>
-      <c r="H11">
+      <c r="H11" s="7">
         <v>3.4605138553309711E-3</v>
       </c>
-      <c r="I11">
+      <c r="I11" s="7">
         <v>14545.5</v>
       </c>
-      <c r="J11">
+      <c r="J11" s="7">
         <v>3.1937319617476589E-3</v>
       </c>
-      <c r="K11">
+      <c r="K11" s="7">
         <v>1452.6</v>
       </c>
-      <c r="L11">
+      <c r="L11" s="7">
         <v>627.79999999999995</v>
       </c>
-      <c r="M11">
+      <c r="M11" s="7">
         <v>444.822</v>
       </c>
-      <c r="N11">
+      <c r="N11" s="7">
         <v>423.42899999999997</v>
       </c>
-      <c r="O11">
+      <c r="O11" s="7">
         <v>204.37100000000001</v>
       </c>
-      <c r="P11">
+      <c r="P11" s="7">
         <v>72.239999999999995</v>
       </c>
-      <c r="Q11">
+      <c r="Q11" s="7">
         <v>-6.8295576064203445E-4</v>
       </c>
-      <c r="R11">
+      <c r="R11" s="7">
         <v>2381.6</v>
       </c>
-      <c r="S11">
+      <c r="S11" s="7">
         <v>7.5726830784639274E-3</v>
       </c>
-      <c r="T11">
+      <c r="T11" s="7">
         <v>8.4565499351492157E-3</v>
       </c>
-      <c r="U11">
+      <c r="U11" s="7">
         <v>3.7761433561331881E-3</v>
       </c>
-      <c r="V11">
+      <c r="V11" s="7">
         <v>-6.8295576064203445E-4</v>
       </c>
-      <c r="W11">
+      <c r="W11" s="7">
         <v>7.5726830784639274E-3</v>
       </c>
-      <c r="X11">
+      <c r="X11" s="7">
         <v>8.4565499351492157E-3</v>
       </c>
-      <c r="Y11">
+      <c r="Y11" s="7">
         <v>3.7761433561331881E-3</v>
       </c>
-      <c r="Z11">
+      <c r="Z11" s="7">
         <v>804.7</v>
       </c>
-      <c r="AA11">
+      <c r="AA11" s="7">
         <v>624.1</v>
       </c>
-      <c r="AB11">
+      <c r="AB11" s="7">
         <v>1428.8</v>
       </c>
-      <c r="AC11">
+      <c r="AC11" s="7">
         <v>43.4</v>
       </c>
-      <c r="AD11">
+      <c r="AD11" s="7">
         <v>3189.6</v>
       </c>
-      <c r="AE11">
+      <c r="AE11" s="7">
         <v>1760.8</v>
       </c>
-      <c r="AF11">
+      <c r="AF11" s="7">
         <v>2252.4</v>
       </c>
-      <c r="AG11">
+      <c r="AG11" s="7">
         <v>1456.8</v>
       </c>
-      <c r="AH11">
+      <c r="AH11" s="7">
         <v>1530</v>
       </c>
-      <c r="AI11">
+      <c r="AI11" s="7">
         <v>5239.2000000000007</v>
       </c>
-      <c r="AJ11">
+      <c r="AJ11" s="7">
         <v>243.2</v>
       </c>
-      <c r="AK11">
+      <c r="AK11" s="7">
         <v>75.099999999999994</v>
       </c>
-      <c r="AL11">
-        <v>0</v>
-      </c>
-      <c r="AM11">
+      <c r="AL11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM11" s="7">
         <v>423.42899999999997</v>
       </c>
-      <c r="AN11">
+      <c r="AN11" s="7">
         <v>1228.1289999999999</v>
       </c>
-      <c r="AO11">
-        <v>0</v>
-      </c>
-      <c r="AP11">
-        <v>0</v>
-      </c>
-      <c r="AQ11">
+      <c r="AO11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP11" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ11" s="7">
         <v>1574.779</v>
       </c>
-      <c r="AR11">
+      <c r="AR11" s="7">
         <v>1756.6</v>
       </c>
-      <c r="AS11">
+      <c r="AS11" s="7">
         <v>1436.4</v>
       </c>
-      <c r="AT11">
+      <c r="AT11" s="7">
         <v>183.8</v>
       </c>
-      <c r="AU11">
+      <c r="AU11" s="7">
         <v>3376.8</v>
       </c>
-      <c r="AV11">
+      <c r="AV11" s="7">
         <v>180.5</v>
       </c>
-      <c r="AW11">
+      <c r="AW11" s="7">
         <v>74.5</v>
       </c>
-      <c r="AX11">
+      <c r="AX11" s="7">
         <v>200.67099999999999</v>
       </c>
-      <c r="AY11">
+      <c r="AY11" s="7">
         <v>200.67099999999999</v>
       </c>
-      <c r="AZ11">
+      <c r="AZ11" s="7">
         <v>810.12099999999998</v>
       </c>
-      <c r="BA11">
+      <c r="BA11" s="7">
         <v>43.4</v>
       </c>
-      <c r="BB11">
-        <v>0</v>
-      </c>
-      <c r="BC11">
+      <c r="BB11" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC11" s="7">
         <v>186.02099999999999</v>
       </c>
-      <c r="BD11">
+      <c r="BD11" s="7">
         <v>495.8</v>
       </c>
-      <c r="BE11">
+      <c r="BE11" s="7">
         <v>20.399999999999999</v>
       </c>
-      <c r="BF11">
+      <c r="BF11" s="7">
         <v>1346.2</v>
       </c>
-      <c r="BG11">
+      <c r="BG11" s="7">
         <v>1862.4</v>
       </c>
-      <c r="BH11">
+      <c r="BH11" s="7">
         <v>62.7</v>
       </c>
-      <c r="BI11">
+      <c r="BI11" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -7817,184 +7883,184 @@
       <c r="A12" s="2">
         <v>44012</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="7">
         <v>14.28977758476562</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="7">
         <v>3.8141433631542712</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="7">
         <v>1</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="7">
         <v>19520.099999999999</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="7">
         <v>1.191956627200064E-5</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="7">
         <v>4.5982663646491062E-3</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="7">
         <v>-4.5863467983771056E-3</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="7">
         <v>13097.3</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="7">
         <v>-4.0313125665121241E-3</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="7">
         <v>1504.8</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="7">
         <v>1396.9</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="7">
         <v>596.61</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="7">
         <v>512.64</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="7">
         <v>279.25</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="7">
         <v>72.525000000000006</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="7">
         <v>-2.7336900319230311E-3</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="7">
         <v>2334.5</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="7">
         <v>-6.1617304264364181E-3</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="7">
         <v>-7.0051788592789821E-3</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="7">
         <v>-2.616256700951558E-3</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="7">
         <v>-2.7336900319230311E-3</v>
       </c>
-      <c r="W12">
+      <c r="W12" s="7">
         <v>-6.1617304264364181E-3</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="7">
         <v>-7.0051788592789821E-3</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="7">
         <v>-2.616256700951558E-3</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="7">
         <v>824.1</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="7">
         <v>668.8</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="7">
         <v>1492.9</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="7">
         <v>1084.5999999999999</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="7">
         <v>5627.4</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="7">
         <v>4134.6000000000013</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="7">
         <v>2096.5</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="7">
         <v>1393.3</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="7">
         <v>1395.8</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="7">
         <v>4885.5</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="7">
         <v>225.7</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="7">
         <v>1086.5</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="7">
         <v>1078.0999999999999</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="7">
         <v>512.64</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="7">
         <v>1336.74</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="7">
         <v>834.93333333333328</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="7">
         <v>1078.0999999999999</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="7">
         <v>3763.7893333333341</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="7">
         <v>1600.1</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="7">
         <v>1374.2</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="7">
         <v>131.4</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" s="7">
         <v>3105.7</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" s="7">
         <v>171.5</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" s="7">
         <v>1085.9000000000001</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" s="7">
         <v>156.16</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" s="7">
         <v>156.16</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" s="7">
         <v>1039.6106666666669</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" s="7">
         <v>277.60000000000002</v>
       </c>
-      <c r="BB12">
-        <v>0</v>
-      </c>
-      <c r="BC12">
+      <c r="BB12" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC12" s="7">
         <v>370.81066666666698</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" s="7">
         <v>496.4</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" s="7">
         <v>19.100000000000001</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" s="7">
         <v>1264.3</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" s="7">
         <v>1779.8</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" s="7">
         <v>54.2</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -8002,184 +8068,184 @@
       <c r="A13" s="2">
         <v>44104</v>
       </c>
-      <c r="B13">
+      <c r="B13" s="7">
         <v>3.607238917645105</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="7">
         <v>4.6159230645850284</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="7">
         <v>1</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="7">
         <v>21170.3</v>
       </c>
-      <c r="F13">
+      <c r="F13" s="7">
         <v>1.1993069841379491E-2</v>
       </c>
-      <c r="G13">
+      <c r="G13" s="7">
         <v>3.327466438934001E-3</v>
       </c>
-      <c r="H13">
+      <c r="H13" s="7">
         <v>8.6656034024454875E-3</v>
       </c>
-      <c r="I13">
+      <c r="I13" s="7">
         <v>14401.5</v>
       </c>
-      <c r="J13">
+      <c r="J13" s="7">
         <v>9.018879884094666E-3</v>
       </c>
-      <c r="K13">
+      <c r="K13" s="7">
         <v>1487</v>
       </c>
-      <c r="L13">
+      <c r="L13" s="7">
         <v>728.2</v>
       </c>
-      <c r="M13">
+      <c r="M13" s="7">
         <v>533.71199999999999</v>
       </c>
-      <c r="N13">
+      <c r="N13" s="7">
         <v>486.072</v>
       </c>
-      <c r="O13">
+      <c r="O13" s="7">
         <v>286.98038194444439</v>
       </c>
-      <c r="P13">
+      <c r="P13" s="7">
         <v>73.844999999999999</v>
       </c>
-      <c r="Q13">
+      <c r="Q13" s="7">
         <v>4.2560481871218858E-3</v>
       </c>
-      <c r="R13">
+      <c r="R13" s="7">
         <v>2329.6</v>
       </c>
-      <c r="S13">
+      <c r="S13" s="7">
         <v>7.9331545499228273E-3</v>
       </c>
-      <c r="T13">
+      <c r="T13" s="7">
         <v>7.5467788033951599E-3</v>
       </c>
-      <c r="U13">
+      <c r="U13" s="7">
         <v>9.6009600960096364E-3</v>
       </c>
-      <c r="V13">
+      <c r="V13" s="7">
         <v>4.2560481871218858E-3</v>
       </c>
-      <c r="W13">
+      <c r="W13" s="7">
         <v>7.9331545499228273E-3</v>
       </c>
-      <c r="X13">
+      <c r="X13" s="7">
         <v>7.5467788033951599E-3</v>
       </c>
-      <c r="Y13">
+      <c r="Y13" s="7">
         <v>9.6009600960096364E-3</v>
       </c>
-      <c r="Z13">
+      <c r="Z13" s="7">
         <v>842.7</v>
       </c>
-      <c r="AA13">
+      <c r="AA13" s="7">
         <v>683.7</v>
       </c>
-      <c r="AB13">
+      <c r="AB13" s="7">
         <v>1526.4</v>
       </c>
-      <c r="AC13">
+      <c r="AC13" s="7">
         <v>881.35400000000004</v>
       </c>
-      <c r="AD13">
+      <c r="AD13" s="7">
         <v>4323.3999999999996</v>
       </c>
-      <c r="AE13">
+      <c r="AE13" s="7">
         <v>2797</v>
       </c>
-      <c r="AF13">
+      <c r="AF13" s="7">
         <v>2193.9</v>
       </c>
-      <c r="AG13">
+      <c r="AG13" s="7">
         <v>1455.6</v>
       </c>
-      <c r="AH13">
+      <c r="AH13" s="7">
         <v>1489.2</v>
       </c>
-      <c r="AI13">
+      <c r="AI13" s="7">
         <v>5138.8</v>
       </c>
-      <c r="AJ13">
+      <c r="AJ13" s="7">
         <v>297.2</v>
       </c>
-      <c r="AK13">
+      <c r="AK13" s="7">
         <v>1213.5</v>
       </c>
-      <c r="AL13">
+      <c r="AL13" s="7">
         <v>15.6</v>
       </c>
-      <c r="AM13">
+      <c r="AM13" s="7">
         <v>486.072</v>
       </c>
-      <c r="AN13">
+      <c r="AN13" s="7">
         <v>1328.7719999999999</v>
       </c>
-      <c r="AO13">
+      <c r="AO13" s="7">
         <v>738.2</v>
       </c>
-      <c r="AP13">
+      <c r="AP13" s="7">
         <v>15.6</v>
       </c>
-      <c r="AQ13">
+      <c r="AQ13" s="7">
         <v>2653.2669999999998</v>
       </c>
-      <c r="AR13">
+      <c r="AR13" s="7">
         <v>1687.4</v>
       </c>
-      <c r="AS13">
+      <c r="AS13" s="7">
         <v>1435.4</v>
       </c>
-      <c r="AT13">
+      <c r="AT13" s="7">
         <v>144.69999999999999</v>
       </c>
-      <c r="AU13">
+      <c r="AU13" s="7">
         <v>3267.5</v>
       </c>
-      <c r="AV13">
+      <c r="AV13" s="7">
         <v>207</v>
       </c>
-      <c r="AW13">
+      <c r="AW13" s="7">
         <v>1212.9000000000001</v>
       </c>
-      <c r="AX13">
+      <c r="AX13" s="7">
         <v>197.62799999999999</v>
       </c>
-      <c r="AY13">
+      <c r="AY13" s="7">
         <v>197.62799999999999</v>
       </c>
-      <c r="AZ13">
+      <c r="AZ13" s="7">
         <v>827.43299999999999</v>
       </c>
-      <c r="BA13">
+      <c r="BA13" s="7">
         <v>140</v>
       </c>
-      <c r="BB13">
-        <v>0</v>
-      </c>
-      <c r="BC13">
+      <c r="BB13" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC13" s="7">
         <v>143.73299999999989</v>
       </c>
-      <c r="BD13">
+      <c r="BD13" s="7">
         <v>506.6</v>
       </c>
-      <c r="BE13">
+      <c r="BE13" s="7">
         <v>20.2</v>
       </c>
-      <c r="BF13">
+      <c r="BF13" s="7">
         <v>1344.5</v>
       </c>
-      <c r="BG13">
+      <c r="BG13" s="7">
         <v>1871.3</v>
       </c>
-      <c r="BH13">
+      <c r="BH13" s="7">
         <v>90.2</v>
       </c>
-      <c r="BI13">
+      <c r="BI13" s="7">
         <v>0.6</v>
       </c>
     </row>
@@ -8187,181 +8253,182 @@
       <c r="A14" s="2">
         <v>44196</v>
       </c>
-      <c r="B14">
+      <c r="B14" s="7">
         <v>-3.1011957257758791</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="7">
         <v>3.7202221095733492</v>
       </c>
-      <c r="E14">
+      <c r="D14" s="7"/>
+      <c r="E14" s="7">
         <v>21598.399172907619</v>
       </c>
-      <c r="F14">
+      <c r="F14" s="7">
         <v>4.1583030873304514E-3</v>
       </c>
-      <c r="G14">
+      <c r="G14" s="7">
         <v>3.2749108611820339E-3</v>
       </c>
-      <c r="H14">
+      <c r="H14" s="7">
         <v>8.8339222614841617E-4</v>
       </c>
-      <c r="I14">
+      <c r="I14" s="7">
         <v>14680.566549051369</v>
       </c>
-      <c r="J14">
+      <c r="J14" s="7">
         <v>1.6664245450039861E-3</v>
       </c>
-      <c r="K14">
+      <c r="K14" s="7">
         <v>1498.3375986209639</v>
       </c>
-      <c r="L14">
+      <c r="L14" s="7">
         <v>733.75214479878025</v>
       </c>
-      <c r="M14">
+      <c r="M14" s="7">
         <v>554.07945607021213</v>
       </c>
-      <c r="N14">
+      <c r="N14" s="7">
         <v>504.62142385960999</v>
       </c>
-      <c r="O14">
+      <c r="O14" s="7">
         <v>298.37288477706733</v>
       </c>
-      <c r="P14">
+      <c r="P14" s="7">
         <v>74.408029569714259</v>
       </c>
-      <c r="Q14">
+      <c r="Q14" s="7">
         <v>3.6506630718313731E-3</v>
       </c>
-      <c r="R14">
+      <c r="R14" s="7">
         <v>2335.424</v>
       </c>
-      <c r="S14">
+      <c r="S14" s="7">
         <v>3.458823943076839E-3</v>
       </c>
-      <c r="T14">
+      <c r="T14" s="7">
         <v>3.458823943076839E-3</v>
       </c>
-      <c r="U14">
+      <c r="U14" s="7">
         <v>3.458823943076839E-3</v>
       </c>
-      <c r="V14">
+      <c r="V14" s="7">
         <v>3.6506630718313731E-3</v>
       </c>
-      <c r="W14">
+      <c r="W14" s="7">
         <v>3.458823943076839E-3</v>
       </c>
-      <c r="X14">
+      <c r="X14" s="7">
         <v>3.458823943076839E-3</v>
       </c>
-      <c r="Y14">
+      <c r="Y14" s="7">
         <v>3.458823943076839E-3</v>
       </c>
-      <c r="Z14">
+      <c r="Z14" s="7">
         <v>829.91020137042551</v>
       </c>
-      <c r="AA14">
+      <c r="AA14" s="7">
         <v>709.791280906564</v>
       </c>
-      <c r="AB14">
+      <c r="AB14" s="7">
         <v>1552.3493974982571</v>
       </c>
-      <c r="AC14">
+      <c r="AC14" s="7">
         <v>337.8</v>
       </c>
-      <c r="AD14">
+      <c r="AD14" s="7">
         <v>3977.3461504988982</v>
       </c>
-      <c r="AE14">
+      <c r="AE14" s="7">
         <v>2189.8496216534181</v>
       </c>
-      <c r="AF14">
+      <c r="AF14" s="7">
         <v>2211.584932832352</v>
       </c>
-      <c r="AG14">
+      <c r="AG14" s="7">
         <v>1475.8656149825031</v>
       </c>
-      <c r="AH14">
+      <c r="AH14" s="7">
         <v>1518.4880742286989</v>
       </c>
-      <c r="AI14">
+      <c r="AI14" s="7">
         <v>5204.8432950042252</v>
       </c>
-      <c r="AJ14">
+      <c r="AJ14" s="7">
         <v>309.18434226400962</v>
       </c>
-      <c r="AK14">
+      <c r="AK14" s="7">
         <v>383.53397329309831</v>
       </c>
-      <c r="AL14">
-        <v>0</v>
-      </c>
-      <c r="AM14">
+      <c r="AL14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM14" s="7">
         <v>504.62142385960999</v>
       </c>
-      <c r="AN14">
+      <c r="AN14" s="7">
         <v>1368.117371850785</v>
       </c>
-      <c r="AO14">
+      <c r="AO14" s="7">
         <v>257.8</v>
       </c>
-      <c r="AP14">
-        <v>0</v>
-      </c>
-      <c r="AQ14">
+      <c r="AP14" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ14" s="7">
         <v>1966.882334153418</v>
       </c>
-      <c r="AR14">
+      <c r="AR14" s="7">
         <v>1694.740626374956</v>
       </c>
-      <c r="AS14">
+      <c r="AS14" s="7">
         <v>1455.2571369121531</v>
       </c>
-      <c r="AT14">
+      <c r="AT14" s="7">
         <v>146.8000165264321</v>
       </c>
-      <c r="AU14">
+      <c r="AU14" s="7">
         <v>3296.7977798135412</v>
       </c>
-      <c r="AV14">
+      <c r="AV14" s="7">
         <v>217.21555104965049</v>
       </c>
-      <c r="AW14">
+      <c r="AW14" s="7">
         <v>382.9320083465816</v>
       </c>
-      <c r="AX14">
+      <c r="AX14" s="7">
         <v>205.16985704695401</v>
       </c>
-      <c r="AY14">
+      <c r="AY14" s="7">
         <v>184.23202564747211</v>
       </c>
-      <c r="AZ14">
+      <c r="AZ14" s="7">
         <v>829.50158249999993</v>
       </c>
-      <c r="BA14">
+      <c r="BA14" s="7">
         <v>80</v>
       </c>
-      <c r="BB14">
-        <v>0</v>
-      </c>
-      <c r="BC14">
+      <c r="BB14" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC14" s="7">
         <v>222.9672875</v>
       </c>
-      <c r="BD14">
+      <c r="BD14" s="7">
         <v>516.84430645739553</v>
       </c>
-      <c r="BE14">
+      <c r="BE14" s="7">
         <v>20.608478070350159</v>
       </c>
-      <c r="BF14">
+      <c r="BF14" s="7">
         <v>1371.6880577022671</v>
       </c>
-      <c r="BG14">
+      <c r="BG14" s="7">
         <v>1908.045515190684</v>
       </c>
-      <c r="BH14">
+      <c r="BH14" s="7">
         <v>91.968791214359072</v>
       </c>
-      <c r="BI14">
+      <c r="BI14" s="7">
         <v>0.60196494651670918</v>
       </c>
     </row>
@@ -8369,181 +8436,182 @@
       <c r="A15" s="2">
         <v>44286</v>
       </c>
-      <c r="B15">
+      <c r="B15" s="7">
         <v>3.932030374331585</v>
       </c>
-      <c r="C15">
+      <c r="C15" s="7">
         <v>4.6819627877416066</v>
       </c>
-      <c r="E15">
+      <c r="D15" s="7"/>
+      <c r="E15" s="7">
         <v>21956.606754670749</v>
       </c>
-      <c r="F15">
+      <c r="F15" s="7">
         <v>5.1536000946479374E-3</v>
       </c>
-      <c r="G15">
+      <c r="G15" s="7">
         <v>3.388375028452018E-3</v>
       </c>
-      <c r="H15">
+      <c r="H15" s="7">
         <v>1.765225066195919E-3</v>
       </c>
-      <c r="I15">
+      <c r="I15" s="7">
         <v>14822.70305631074</v>
       </c>
-      <c r="J15">
+      <c r="J15" s="7">
         <v>2.1723285436814339E-3</v>
       </c>
-      <c r="K15">
+      <c r="K15" s="7">
         <v>1575.75145528078</v>
       </c>
-      <c r="L15">
+      <c r="L15" s="7">
         <v>736.69719551813319</v>
       </c>
-      <c r="M15">
+      <c r="M15" s="7">
         <v>574.44691214042427</v>
       </c>
-      <c r="N15">
+      <c r="N15" s="7">
         <v>523.17084771921998</v>
       </c>
-      <c r="O15">
+      <c r="O15" s="7">
         <v>341.14099544764292</v>
       </c>
-      <c r="P15">
+      <c r="P15" s="7">
         <v>74.70668003712791</v>
       </c>
-      <c r="Q15">
+      <c r="Q15" s="7">
         <v>3.9389826120606042E-3</v>
       </c>
-      <c r="R15">
+      <c r="R15" s="7">
         <v>2400.2625600000001</v>
       </c>
-      <c r="S15">
+      <c r="S15" s="7">
         <v>3.1885362715387E-3</v>
       </c>
-      <c r="T15">
+      <c r="T15" s="7">
         <v>3.1885362715387E-3</v>
       </c>
-      <c r="U15">
+      <c r="U15" s="7">
         <v>3.1885362715387E-3</v>
       </c>
-      <c r="V15">
+      <c r="V15" s="7">
         <v>3.9389826120606042E-3</v>
       </c>
-      <c r="W15">
+      <c r="W15" s="7">
         <v>3.1885362715387E-3</v>
       </c>
-      <c r="X15">
+      <c r="X15" s="7">
         <v>3.1885362715387E-3</v>
       </c>
-      <c r="Y15">
+      <c r="Y15" s="7">
         <v>3.1885362715387E-3</v>
       </c>
-      <c r="Z15">
+      <c r="Z15" s="7">
         <v>817.12040274085098</v>
       </c>
-      <c r="AA15">
+      <c r="AA15" s="7">
         <v>735.88256181312795</v>
       </c>
-      <c r="AB15">
+      <c r="AB15" s="7">
         <v>1573.9229042507729</v>
       </c>
-      <c r="AC15">
+      <c r="AC15" s="7">
         <v>724</v>
       </c>
-      <c r="AD15">
+      <c r="AD15" s="7">
         <v>3702.6136113854218</v>
       </c>
-      <c r="AE15">
+      <c r="AE15" s="7">
         <v>2628.5502125734911</v>
       </c>
-      <c r="AF15">
+      <c r="AF15" s="7">
         <v>2227.4973773166971</v>
       </c>
-      <c r="AG15">
+      <c r="AG15" s="7">
         <v>1496.064541720574</v>
       </c>
-      <c r="AH15">
+      <c r="AH15" s="7">
         <v>1543.3374185247201</v>
       </c>
-      <c r="AI15">
+      <c r="AI15" s="7">
         <v>5265.7858446184728</v>
       </c>
-      <c r="AJ15">
+      <c r="AJ15" s="7">
         <v>320.92518775955119</v>
       </c>
-      <c r="AK15">
+      <c r="AK15" s="7">
         <v>578.0209212961762</v>
       </c>
-      <c r="AL15">
-        <v>0</v>
-      </c>
-      <c r="AM15">
+      <c r="AL15" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM15" s="7">
         <v>523.17084771921998</v>
       </c>
-      <c r="AN15">
+      <c r="AN15" s="7">
         <v>1387.852444352445</v>
       </c>
-      <c r="AO15">
+      <c r="AO15" s="7">
         <v>664</v>
       </c>
-      <c r="AP15">
+      <c r="AP15" s="7">
         <v>664</v>
       </c>
-      <c r="AQ15">
+      <c r="AQ15" s="7">
         <v>2425.2255068547411</v>
       </c>
-      <c r="AR15">
+      <c r="AR15" s="7">
         <v>1702.081252749912</v>
       </c>
-      <c r="AS15">
+      <c r="AS15" s="7">
         <v>1475.1142738243061</v>
       </c>
-      <c r="AT15">
+      <c r="AT15" s="7">
         <v>148.90003305286419</v>
       </c>
-      <c r="AU15">
+      <c r="AU15" s="7">
         <v>3326.0955596270828</v>
       </c>
-      <c r="AV15">
+      <c r="AV15" s="7">
         <v>227.43110209930111</v>
       </c>
-      <c r="AW15">
+      <c r="AW15" s="7">
         <v>577.41691666666668</v>
       </c>
-      <c r="AX15">
+      <c r="AX15" s="7">
         <v>212.711714093908</v>
       </c>
-      <c r="AY15">
+      <c r="AY15" s="7">
         <v>186.07045989832829</v>
       </c>
-      <c r="AZ15">
+      <c r="AZ15" s="7">
         <v>831.57533645624983</v>
       </c>
-      <c r="BA15">
+      <c r="BA15" s="7">
         <v>60</v>
       </c>
-      <c r="BB15">
-        <v>0</v>
-      </c>
-      <c r="BC15">
+      <c r="BB15" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC15" s="7">
         <v>203.32470571875001</v>
       </c>
-      <c r="BD15">
+      <c r="BD15" s="7">
         <v>525.41612456678479</v>
       </c>
-      <c r="BE15">
+      <c r="BE15" s="7">
         <v>20.950267896267381</v>
       </c>
-      <c r="BF15">
+      <c r="BF15" s="7">
         <v>1394.437385471856</v>
       </c>
-      <c r="BG15">
+      <c r="BG15" s="7">
         <v>1939.690284991389</v>
       </c>
-      <c r="BH15">
+      <c r="BH15" s="7">
         <v>93.494085660250093</v>
       </c>
-      <c r="BI15">
+      <c r="BI15" s="7">
         <v>0.60400462950948985</v>
       </c>
     </row>
@@ -8551,181 +8619,182 @@
       <c r="A16" s="2">
         <v>44377</v>
       </c>
-      <c r="B16">
+      <c r="B16" s="7">
         <v>-2.069715247260751</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="7">
         <v>0.59208957973501519</v>
       </c>
-      <c r="E16">
+      <c r="D16" s="7"/>
+      <c r="E16" s="7">
         <v>22305.748458849539</v>
       </c>
-      <c r="F16">
+      <c r="F16" s="7">
         <v>7.1383204222088548E-3</v>
       </c>
-      <c r="G16">
+      <c r="G16" s="7">
         <v>3.6140913473188259E-3</v>
       </c>
-      <c r="H16">
+      <c r="H16" s="7">
         <v>3.524229074890028E-3</v>
       </c>
-      <c r="I16">
+      <c r="I16" s="7">
         <v>14932.87186560042</v>
       </c>
-      <c r="J16">
+      <c r="J16" s="7">
         <v>3.4348756747633051E-3</v>
       </c>
-      <c r="K16">
+      <c r="K16" s="7">
         <v>1582.6526022674541</v>
       </c>
-      <c r="L16">
+      <c r="L16" s="7">
         <v>740.07676191739063</v>
       </c>
-      <c r="M16">
+      <c r="M16" s="7">
         <v>594.81436821063653</v>
       </c>
-      <c r="N16">
+      <c r="N16" s="7">
         <v>541.72027157882997</v>
       </c>
-      <c r="O16">
+      <c r="O16" s="7">
         <v>314.02243392207242</v>
       </c>
-      <c r="P16">
+      <c r="P16" s="7">
         <v>75.04939368825832</v>
       </c>
-      <c r="Q16">
+      <c r="Q16" s="7">
         <v>5.4103370672069504E-3</v>
       </c>
-      <c r="R16">
+      <c r="R16" s="7">
         <v>2406.1157164000001</v>
       </c>
-      <c r="S16">
+      <c r="S16" s="7">
         <v>5.8029141236253254E-3</v>
       </c>
-      <c r="T16">
+      <c r="T16" s="7">
         <v>5.8029141236253254E-3</v>
       </c>
-      <c r="U16">
+      <c r="U16" s="7">
         <v>5.8029141236253254E-3</v>
       </c>
-      <c r="V16">
+      <c r="V16" s="7">
         <v>5.4103370672069504E-3</v>
       </c>
-      <c r="W16">
+      <c r="W16" s="7">
         <v>5.8029141236253254E-3</v>
       </c>
-      <c r="X16">
+      <c r="X16" s="7">
         <v>5.8029141236253254E-3</v>
       </c>
-      <c r="Y16">
+      <c r="Y16" s="7">
         <v>5.8029141236253254E-3</v>
       </c>
-      <c r="Z16">
+      <c r="Z16" s="7">
         <v>804.33060411127656</v>
       </c>
-      <c r="AA16">
+      <c r="AA16" s="7">
         <v>761.97384271969202</v>
       </c>
-      <c r="AB16">
+      <c r="AB16" s="7">
         <v>1589.7298695960651</v>
       </c>
-      <c r="AC16">
+      <c r="AC16" s="7">
         <v>152</v>
       </c>
-      <c r="AD16">
+      <c r="AD16" s="7">
         <v>3479.2298434117811</v>
       </c>
-      <c r="AE16">
+      <c r="AE16" s="7">
         <v>2044.1945694545</v>
       </c>
-      <c r="AF16">
+      <c r="AF16" s="7">
         <v>2243.1928776111049</v>
       </c>
-      <c r="AG16">
+      <c r="AG16" s="7">
         <v>1516.2548180981289</v>
       </c>
-      <c r="AH16">
+      <c r="AH16" s="7">
         <v>1567.6109999637119</v>
       </c>
-      <c r="AI16">
+      <c r="AI16" s="7">
         <v>5325.9274965862014</v>
       </c>
-      <c r="AJ16">
+      <c r="AJ16" s="7">
         <v>332.62742956988183</v>
       </c>
-      <c r="AK16">
+      <c r="AK16" s="7">
         <v>578.02310422408164</v>
       </c>
-      <c r="AL16">
-        <v>0</v>
-      </c>
-      <c r="AM16">
+      <c r="AL16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM16" s="7">
         <v>541.72027157882997</v>
       </c>
-      <c r="AN16">
+      <c r="AN16" s="7">
         <v>1403.6594096977369</v>
       </c>
-      <c r="AO16">
+      <c r="AO16" s="7">
         <v>108</v>
       </c>
-      <c r="AP16">
-        <v>0</v>
-      </c>
-      <c r="AQ16">
+      <c r="AP16" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ16" s="7">
         <v>1856.5115519714529</v>
       </c>
-      <c r="AR16">
+      <c r="AR16" s="7">
         <v>1709.4218791248691</v>
       </c>
-      <c r="AS16">
+      <c r="AS16" s="7">
         <v>1494.9714107364589</v>
       </c>
-      <c r="AT16">
+      <c r="AT16" s="7">
         <v>151.0000495792963</v>
       </c>
-      <c r="AU16">
+      <c r="AU16" s="7">
         <v>3355.393339440624</v>
       </c>
-      <c r="AV16">
+      <c r="AV16" s="7">
         <v>237.64665314895171</v>
       </c>
-      <c r="AW16">
+      <c r="AW16" s="7">
         <v>577.41691666666691</v>
       </c>
-      <c r="AX16">
+      <c r="AX16" s="7">
         <v>220.25357114086211</v>
       </c>
-      <c r="AY16">
+      <c r="AY16" s="7">
         <v>186.07045989832821</v>
       </c>
-      <c r="AZ16">
+      <c r="AZ16" s="7">
         <v>833.65427479739037</v>
       </c>
-      <c r="BA16">
+      <c r="BA16" s="7">
         <v>44</v>
       </c>
-      <c r="BB16">
-        <v>0</v>
-      </c>
-      <c r="BC16">
+      <c r="BB16" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC16" s="7">
         <v>187.68301748304691</v>
       </c>
-      <c r="BD16">
+      <c r="BD16" s="7">
         <v>533.77099848623675</v>
       </c>
-      <c r="BE16">
+      <c r="BE16" s="7">
         <v>21.283407361669919</v>
       </c>
-      <c r="BF16">
+      <c r="BF16" s="7">
         <v>1416.6109503844159</v>
       </c>
-      <c r="BG16">
+      <c r="BG16" s="7">
         <v>1970.534157145576</v>
       </c>
-      <c r="BH16">
+      <c r="BH16" s="7">
         <v>94.980776420930042</v>
       </c>
-      <c r="BI16">
+      <c r="BI16" s="7">
         <v>0.60618755741474062</v>
       </c>
     </row>
@@ -8733,181 +8802,182 @@
       <c r="A17" s="2">
         <v>44469</v>
       </c>
-      <c r="B17">
+      <c r="B17" s="7">
         <v>-4.6983361079403254</v>
       </c>
-      <c r="C17">
+      <c r="C17" s="7">
         <v>-1.4843041766613421</v>
       </c>
-      <c r="E17">
+      <c r="D17" s="7"/>
+      <c r="E17" s="7">
         <v>22678.925280344971</v>
       </c>
-      <c r="F17">
+      <c r="F17" s="7">
         <v>7.4006044029057971E-3</v>
       </c>
-      <c r="G17">
+      <c r="G17" s="7">
         <v>3.8887519007109179E-3</v>
       </c>
-      <c r="H17">
+      <c r="H17" s="7">
         <v>3.5118525021948792E-3</v>
       </c>
-      <c r="I17">
+      <c r="I17" s="7">
         <v>15070.84320048589</v>
       </c>
-      <c r="J17">
+      <c r="J17" s="7">
         <v>3.8219263490923971E-3</v>
       </c>
-      <c r="K17">
+      <c r="K17" s="7">
         <v>1549.9368030232711</v>
       </c>
-      <c r="L17">
+      <c r="L17" s="7">
         <v>744.03568255652067</v>
       </c>
-      <c r="M17">
+      <c r="M17" s="7">
         <v>615.18182428084856</v>
       </c>
-      <c r="N17">
+      <c r="N17" s="7">
         <v>560.26969543843984</v>
       </c>
-      <c r="O17">
+      <c r="O17" s="7">
         <v>315.05497613497761</v>
       </c>
-      <c r="P17">
+      <c r="P17" s="7">
         <v>75.45085825101107</v>
       </c>
-      <c r="Q17">
+      <c r="Q17" s="7">
         <v>4.6760126561193882E-3</v>
       </c>
-      <c r="R17">
+      <c r="R17" s="7">
         <v>2417.8512949819992</v>
       </c>
-      <c r="S17">
+      <c r="S17" s="7">
         <v>5.5851895345160329E-3</v>
       </c>
-      <c r="T17">
+      <c r="T17" s="7">
         <v>5.5851895345160329E-3</v>
       </c>
-      <c r="U17">
+      <c r="U17" s="7">
         <v>5.5851895345160329E-3</v>
       </c>
-      <c r="V17">
+      <c r="V17" s="7">
         <v>4.6760126561193882E-3</v>
       </c>
-      <c r="W17">
+      <c r="W17" s="7">
         <v>5.5851895345160329E-3</v>
       </c>
-      <c r="X17">
+      <c r="X17" s="7">
         <v>5.5851895345160329E-3</v>
       </c>
-      <c r="Y17">
+      <c r="Y17" s="7">
         <v>5.5851895345160329E-3</v>
       </c>
-      <c r="Z17">
+      <c r="Z17" s="7">
         <v>791.54080548170202</v>
       </c>
-      <c r="AA17">
+      <c r="AA17" s="7">
         <v>788.06512362625585</v>
       </c>
-      <c r="AB17">
+      <c r="AB17" s="7">
         <v>1600.433864524897</v>
       </c>
-      <c r="AC17">
+      <c r="AC17" s="7">
         <v>44</v>
       </c>
-      <c r="AD17">
+      <c r="AD17" s="7">
         <v>3322.1702954675579</v>
       </c>
-      <c r="AE17">
+      <c r="AE17" s="7">
         <v>1856.6691479021299</v>
       </c>
-      <c r="AF17">
+      <c r="AF17" s="7">
         <v>2259.463532269534</v>
       </c>
-      <c r="AG17">
+      <c r="AG17" s="7">
         <v>1536.468027989607</v>
       </c>
-      <c r="AH17">
+      <c r="AH17" s="7">
         <v>1593.411022465526</v>
       </c>
-      <c r="AI17">
+      <c r="AI17" s="7">
         <v>5388.1924585935321</v>
       </c>
-      <c r="AJ17">
+      <c r="AJ17" s="7">
         <v>344.43201603402741</v>
       </c>
-      <c r="AK17">
+      <c r="AK17" s="7">
         <v>578.0254615370975</v>
       </c>
-      <c r="AL17">
-        <v>0</v>
-      </c>
-      <c r="AM17">
+      <c r="AL17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM17" s="7">
         <v>560.26969543843984</v>
       </c>
-      <c r="AN17">
+      <c r="AN17" s="7">
         <v>1414.363404626569</v>
       </c>
-      <c r="AO17">
-        <v>0</v>
-      </c>
-      <c r="AP17">
-        <v>0</v>
-      </c>
-      <c r="AQ17">
+      <c r="AO17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP17" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ17" s="7">
         <v>1668.2677153316679</v>
       </c>
-      <c r="AR17">
+      <c r="AR17" s="7">
         <v>1716.762505499825</v>
       </c>
-      <c r="AS17">
+      <c r="AS17" s="7">
         <v>1514.8285476486119</v>
       </c>
-      <c r="AT17">
+      <c r="AT17" s="7">
         <v>153.10006610572839</v>
       </c>
-      <c r="AU17">
+      <c r="AU17" s="7">
         <v>3384.6911192541652</v>
       </c>
-      <c r="AV17">
+      <c r="AV17" s="7">
         <v>247.86220419860231</v>
       </c>
-      <c r="AW17">
+      <c r="AW17" s="7">
         <v>577.41691666666668</v>
       </c>
-      <c r="AX17">
+      <c r="AX17" s="7">
         <v>227.79542818781599</v>
       </c>
-      <c r="AY17">
+      <c r="AY17" s="7">
         <v>186.07045989832829</v>
       </c>
-      <c r="AZ17">
+      <c r="AZ17" s="7">
         <v>837.82254617137721</v>
       </c>
-      <c r="BA17">
+      <c r="BA17" s="7">
         <v>44</v>
       </c>
-      <c r="BB17">
-        <v>0</v>
-      </c>
-      <c r="BC17">
+      <c r="BB17" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC17" s="7">
         <v>188.40143257046211</v>
       </c>
-      <c r="BD17">
+      <c r="BD17" s="7">
         <v>542.70102676970885</v>
       </c>
-      <c r="BE17">
+      <c r="BE17" s="7">
         <v>21.6394803409951</v>
       </c>
-      <c r="BF17">
+      <c r="BF17" s="7">
         <v>1440.310956359798</v>
       </c>
-      <c r="BG17">
+      <c r="BG17" s="7">
         <v>2003.501339339367</v>
       </c>
-      <c r="BH17">
+      <c r="BH17" s="7">
         <v>96.569811835425071</v>
       </c>
-      <c r="BI17">
+      <c r="BI17" s="7">
         <v>0.6085448704308245</v>
       </c>
     </row>
@@ -8915,181 +8985,182 @@
       <c r="A18" s="2">
         <v>44561</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="7">
         <v>-2.2866016108442668</v>
       </c>
-      <c r="C18">
+      <c r="C18" s="7">
         <v>-1.280655647928439</v>
       </c>
-      <c r="E18">
+      <c r="D18" s="7"/>
+      <c r="E18" s="7">
         <v>22928.869417001941</v>
       </c>
-      <c r="F18">
+      <c r="F18" s="7">
         <v>7.6751629251630149E-3</v>
       </c>
-      <c r="G18">
+      <c r="G18" s="7">
         <v>4.1756003704822584E-3</v>
       </c>
-      <c r="H18">
+      <c r="H18" s="7">
         <v>3.499562554680757E-3</v>
       </c>
-      <c r="I18">
+      <c r="I18" s="7">
         <v>15235.36750925498</v>
       </c>
-      <c r="J18">
+      <c r="J18" s="7">
         <v>3.422428967105207E-3</v>
       </c>
-      <c r="K18">
+      <c r="K18" s="7">
         <v>1561.597960524671</v>
       </c>
-      <c r="L18">
+      <c r="L18" s="7">
         <v>749.74627764227682</v>
       </c>
-      <c r="M18">
+      <c r="M18" s="7">
         <v>609.05850920119076</v>
       </c>
-      <c r="N18">
+      <c r="N18" s="7">
         <v>554.69295740856705</v>
       </c>
-      <c r="O18">
+      <c r="O18" s="7">
         <v>310.5443796932509</v>
       </c>
-      <c r="P18">
+      <c r="P18" s="7">
         <v>76.029955880930956</v>
       </c>
-      <c r="Q18">
+      <c r="Q18" s="7">
         <v>4.6635170615263446E-3</v>
       </c>
-      <c r="R18">
+      <c r="R18" s="7">
         <v>2435.5426796943639</v>
       </c>
-      <c r="S18">
+      <c r="S18" s="7">
         <v>5.4923263852981741E-3</v>
       </c>
-      <c r="T18">
+      <c r="T18" s="7">
         <v>5.4923263852981741E-3</v>
       </c>
-      <c r="U18">
+      <c r="U18" s="7">
         <v>5.4923263852981741E-3</v>
       </c>
-      <c r="V18">
+      <c r="V18" s="7">
         <v>4.6635170615263446E-3</v>
       </c>
-      <c r="W18">
+      <c r="W18" s="7">
         <v>5.4923263852981741E-3</v>
       </c>
-      <c r="X18">
+      <c r="X18" s="7">
         <v>5.4923263852981741E-3</v>
       </c>
-      <c r="Y18">
+      <c r="Y18" s="7">
         <v>5.4923263852981741E-3</v>
       </c>
-      <c r="Z18">
+      <c r="Z18" s="7">
         <v>831.50700168084188</v>
       </c>
-      <c r="AA18">
+      <c r="AA18" s="7">
         <v>780.22098573922676</v>
       </c>
-      <c r="AB18">
+      <c r="AB18" s="7">
         <v>1636.414640755323</v>
       </c>
-      <c r="AC18">
+      <c r="AC18" s="7">
         <v>44</v>
       </c>
-      <c r="AD18">
+      <c r="AD18" s="7">
         <v>3414.460892969204</v>
       </c>
-      <c r="AE18">
+      <c r="AE18" s="7">
         <v>1854.0561743763819</v>
       </c>
-      <c r="AF18">
+      <c r="AF18" s="7">
         <v>2286.9701235443431</v>
       </c>
-      <c r="AG18">
+      <c r="AG18" s="7">
         <v>1559.9901834227401</v>
       </c>
-      <c r="AH18">
+      <c r="AH18" s="7">
         <v>1613.0432687459979</v>
       </c>
-      <c r="AI18">
+      <c r="AI18" s="7">
         <v>5458.8407760790578</v>
       </c>
-      <c r="AJ18">
+      <c r="AJ18" s="7">
         <v>388.80179557658948</v>
       </c>
-      <c r="AK18">
+      <c r="AK18" s="7">
         <v>123.3613359106175</v>
       </c>
-      <c r="AL18">
-        <v>0</v>
-      </c>
-      <c r="AM18">
+      <c r="AL18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM18" s="7">
         <v>554.69295740856705</v>
       </c>
-      <c r="AN18">
+      <c r="AN18" s="7">
         <v>1450.3441808569951</v>
       </c>
-      <c r="AO18">
-        <v>0</v>
-      </c>
-      <c r="AP18">
-        <v>0</v>
-      </c>
-      <c r="AQ18">
+      <c r="AO18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP18" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ18" s="7">
         <v>1664.5717310616419</v>
       </c>
-      <c r="AR18">
+      <c r="AR18" s="7">
         <v>1738.2879959101949</v>
       </c>
-      <c r="AS18">
+      <c r="AS18" s="7">
         <v>1538.112214654067</v>
       </c>
-      <c r="AT18">
+      <c r="AT18" s="7">
         <v>156.85866431624851</v>
       </c>
-      <c r="AU18">
+      <c r="AU18" s="7">
         <v>3433.258874880511</v>
       </c>
-      <c r="AV18">
+      <c r="AV18" s="7">
         <v>291.16768911750103</v>
       </c>
-      <c r="AW18">
+      <c r="AW18" s="7">
         <v>122.75025000000031</v>
       </c>
-      <c r="AX18">
+      <c r="AX18" s="7">
         <v>225.52802833065971</v>
       </c>
-      <c r="AY18">
+      <c r="AY18" s="7">
         <v>186.07045989832829</v>
       </c>
-      <c r="AZ18">
+      <c r="AZ18" s="7">
         <v>844.10621526766261</v>
       </c>
-      <c r="BA18">
+      <c r="BA18" s="7">
         <v>44</v>
       </c>
-      <c r="BB18">
-        <v>0</v>
-      </c>
-      <c r="BC18">
+      <c r="BB18" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC18" s="7">
         <v>189.48444331474059</v>
       </c>
-      <c r="BD18">
+      <c r="BD18" s="7">
         <v>548.68212763414726</v>
       </c>
-      <c r="BE18">
+      <c r="BE18" s="7">
         <v>21.87796876867306</v>
       </c>
-      <c r="BF18">
+      <c r="BF18" s="7">
         <v>1456.184604429749</v>
       </c>
-      <c r="BG18">
+      <c r="BG18" s="7">
         <v>2025.581901198547</v>
       </c>
-      <c r="BH18">
+      <c r="BH18" s="7">
         <v>97.634106459088585</v>
       </c>
-      <c r="BI18">
+      <c r="BI18" s="7">
         <v>0.61108591061725048</v>
       </c>
     </row>
@@ -9097,181 +9168,182 @@
       <c r="A19" s="2">
         <v>44651</v>
       </c>
-      <c r="B19">
+      <c r="B19" s="7">
         <v>-2.3395718950585511</v>
       </c>
-      <c r="C19">
+      <c r="C19" s="7">
         <v>-2.8485562152759729</v>
       </c>
-      <c r="E19">
+      <c r="D19" s="7"/>
+      <c r="E19" s="7">
         <v>23157.624700235021</v>
       </c>
-      <c r="F19">
+      <c r="F19" s="7">
         <v>8.6754073889774297E-3</v>
       </c>
-      <c r="G19">
+      <c r="G19" s="7">
         <v>4.3162094813924412E-3</v>
       </c>
-      <c r="H19">
+      <c r="H19" s="7">
         <v>4.3591979075849876E-3</v>
       </c>
-      <c r="I19">
+      <c r="I19" s="7">
         <v>15397.39271459972</v>
       </c>
-      <c r="J19">
+      <c r="J19" s="7">
         <v>3.9388038266074954E-3</v>
       </c>
-      <c r="K19">
+      <c r="K19" s="7">
         <v>1544.2799915439159</v>
       </c>
-      <c r="L19">
+      <c r="L19" s="7">
         <v>756.25063203919296</v>
       </c>
-      <c r="M19">
+      <c r="M19" s="7">
         <v>602.93519412153296</v>
       </c>
-      <c r="N19">
+      <c r="N19" s="7">
         <v>549.11621937869427</v>
       </c>
-      <c r="O19">
+      <c r="O19" s="7">
         <v>306.24080684971523</v>
       </c>
-      <c r="P19">
+      <c r="P19" s="7">
         <v>76.689546721964007</v>
       </c>
-      <c r="Q19">
+      <c r="Q19" s="7">
         <v>5.2074332851250738E-3</v>
       </c>
-      <c r="R19">
+      <c r="R19" s="7">
         <v>2459.3081064913081</v>
       </c>
-      <c r="S19">
+      <c r="S19" s="7">
         <v>6.5072691879082267E-3</v>
       </c>
-      <c r="T19">
+      <c r="T19" s="7">
         <v>6.5072691879082267E-3</v>
       </c>
-      <c r="U19">
+      <c r="U19" s="7">
         <v>6.5072691879082267E-3</v>
       </c>
-      <c r="V19">
+      <c r="V19" s="7">
         <v>5.2074332851250738E-3</v>
       </c>
-      <c r="W19">
+      <c r="W19" s="7">
         <v>6.5072691879082267E-3</v>
       </c>
-      <c r="X19">
+      <c r="X19" s="7">
         <v>6.5072691879082267E-3</v>
       </c>
-      <c r="Y19">
+      <c r="Y19" s="7">
         <v>6.5072691879082267E-3</v>
       </c>
-      <c r="Z19">
+      <c r="Z19" s="7">
         <v>871.47319787998163</v>
       </c>
-      <c r="AA19">
+      <c r="AA19" s="7">
         <v>772.37684785219767</v>
       </c>
-      <c r="AB19">
+      <c r="AB19" s="7">
         <v>1715.3347538853629</v>
       </c>
-      <c r="AC19">
+      <c r="AC19" s="7">
         <v>44</v>
       </c>
-      <c r="AD19">
+      <c r="AD19" s="7">
         <v>3480.3144390272141</v>
       </c>
-      <c r="AE19">
+      <c r="AE19" s="7">
         <v>1872.212077636118</v>
       </c>
-      <c r="AF19">
+      <c r="AF19" s="7">
         <v>2313.969670840344</v>
       </c>
-      <c r="AG19">
+      <c r="AG19" s="7">
         <v>1583.492121152809</v>
       </c>
-      <c r="AH19">
+      <c r="AH19" s="7">
         <v>1631.329836721088</v>
       </c>
-      <c r="AI19">
+      <c r="AI19" s="7">
         <v>5528.7916287142416</v>
       </c>
-      <c r="AJ19">
+      <c r="AJ19" s="7">
         <v>433.14054048662462</v>
       </c>
-      <c r="AK19">
+      <c r="AK19" s="7">
         <v>77.943973485418809</v>
       </c>
-      <c r="AL19">
-        <v>0</v>
-      </c>
-      <c r="AM19">
+      <c r="AL19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM19" s="7">
         <v>549.11621937869427</v>
       </c>
-      <c r="AN19">
+      <c r="AN19" s="7">
         <v>1486.3249570874209</v>
       </c>
-      <c r="AO19">
-        <v>0</v>
-      </c>
-      <c r="AP19">
-        <v>0</v>
-      </c>
-      <c r="AQ19">
+      <c r="AO19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP19" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ19" s="7">
         <v>1681.2727898882299</v>
       </c>
-      <c r="AR19">
+      <c r="AR19" s="7">
         <v>1759.813486320566</v>
       </c>
-      <c r="AS19">
+      <c r="AS19" s="7">
         <v>1561.395881659522</v>
       </c>
-      <c r="AT19">
+      <c r="AT19" s="7">
         <v>160.6172625267686</v>
       </c>
-      <c r="AU19">
+      <c r="AU19" s="7">
         <v>3481.826630506856</v>
       </c>
-      <c r="AV19">
+      <c r="AV19" s="7">
         <v>334.47317403639948</v>
       </c>
-      <c r="AW19">
+      <c r="AW19" s="7">
         <v>77.330250000000206</v>
       </c>
-      <c r="AX19">
+      <c r="AX19" s="7">
         <v>223.2606284735034</v>
       </c>
-      <c r="AY19">
+      <c r="AY19" s="7">
         <v>229.0097967979425</v>
       </c>
-      <c r="AZ19">
+      <c r="AZ19" s="7">
         <v>852.54727742033924</v>
       </c>
-      <c r="BA19">
+      <c r="BA19" s="7">
         <v>44</v>
       </c>
-      <c r="BB19">
-        <v>0</v>
-      </c>
-      <c r="BC19">
+      <c r="BB19" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC19" s="7">
         <v>190.9392877478879</v>
       </c>
-      <c r="BD19">
+      <c r="BD19" s="7">
         <v>554.15618451977844</v>
       </c>
-      <c r="BE19">
+      <c r="BE19" s="7">
         <v>22.096239493287651</v>
       </c>
-      <c r="BF19">
+      <c r="BF19" s="7">
         <v>1470.71257419432</v>
       </c>
-      <c r="BG19">
+      <c r="BG19" s="7">
         <v>2046.9649982073861</v>
       </c>
-      <c r="BH19">
+      <c r="BH19" s="7">
         <v>98.66736645022506</v>
       </c>
-      <c r="BI19">
+      <c r="BI19" s="7">
         <v>0.613723485418602</v>
       </c>
     </row>
@@ -9279,181 +9351,182 @@
       <c r="A20" s="2">
         <v>44742</v>
       </c>
-      <c r="B20">
+      <c r="B20" s="7">
         <v>-2.13930466170003</v>
       </c>
-      <c r="C20">
+      <c r="C20" s="7">
         <v>-2.8659535688857929</v>
       </c>
-      <c r="E20">
+      <c r="D20" s="7"/>
+      <c r="E20" s="7">
         <v>23384.060805481411</v>
       </c>
-      <c r="F20">
+      <c r="F20" s="7">
         <v>8.7089733593570529E-3</v>
       </c>
-      <c r="G20">
+      <c r="G20" s="7">
         <v>4.3686955815793738E-3</v>
       </c>
-      <c r="H20">
+      <c r="H20" s="7">
         <v>4.3402777777776791E-3</v>
       </c>
-      <c r="I20">
+      <c r="I20" s="7">
         <v>15572.121695684869</v>
       </c>
-      <c r="J20">
+      <c r="J20" s="7">
         <v>4.3873884059606461E-3</v>
       </c>
-      <c r="K20">
+      <c r="K20" s="7">
         <v>1557.72908484966</v>
       </c>
-      <c r="L20">
+      <c r="L20" s="7">
         <v>762.83679864661929</v>
       </c>
-      <c r="M20">
+      <c r="M20" s="7">
         <v>596.81187904187516</v>
       </c>
-      <c r="N20">
+      <c r="N20" s="7">
         <v>543.5394813488216</v>
       </c>
-      <c r="O20">
+      <c r="O20" s="7">
         <v>307.95857178194768</v>
       </c>
-      <c r="P20">
+      <c r="P20" s="7">
         <v>77.357433941306766</v>
       </c>
-      <c r="Q20">
+      <c r="Q20" s="7">
         <v>5.1850913025059953E-3</v>
       </c>
-      <c r="R20">
+      <c r="R20" s="7">
         <v>2484.5923912336798</v>
       </c>
-      <c r="S20">
+      <c r="S20" s="7">
         <v>7.0037816299017841E-3</v>
       </c>
-      <c r="T20">
+      <c r="T20" s="7">
         <v>7.0037816299017841E-3</v>
       </c>
-      <c r="U20">
+      <c r="U20" s="7">
         <v>7.0037816299017841E-3</v>
       </c>
-      <c r="V20">
+      <c r="V20" s="7">
         <v>5.1850913025059953E-3</v>
       </c>
-      <c r="W20">
+      <c r="W20" s="7">
         <v>7.0037816299017841E-3</v>
       </c>
-      <c r="X20">
+      <c r="X20" s="7">
         <v>7.0037816299017841E-3</v>
       </c>
-      <c r="Y20">
+      <c r="Y20" s="7">
         <v>7.0037816299017841E-3</v>
       </c>
-      <c r="Z20">
+      <c r="Z20" s="7">
         <v>911.43939407912126</v>
       </c>
-      <c r="AA20">
+      <c r="AA20" s="7">
         <v>764.53270996516858</v>
       </c>
-      <c r="AB20">
+      <c r="AB20" s="7">
         <v>1751.315530115789</v>
       </c>
-      <c r="AC20">
+      <c r="AC20" s="7">
         <v>44</v>
       </c>
-      <c r="AD20">
+      <c r="AD20" s="7">
         <v>3528.5212254071262</v>
       </c>
-      <c r="AE20">
+      <c r="AE20" s="7">
         <v>1911.5745109913869</v>
       </c>
-      <c r="AF20">
+      <c r="AF20" s="7">
         <v>2340.9137207854328</v>
       </c>
-      <c r="AG20">
+      <c r="AG20" s="7">
         <v>1606.991845999956</v>
       </c>
-      <c r="AH20">
+      <c r="AH20" s="7">
         <v>1649.4691165234501</v>
       </c>
-      <c r="AI20">
+      <c r="AI20" s="7">
         <v>5597.3746833088389</v>
       </c>
-      <c r="AJ20">
+      <c r="AJ20" s="7">
         <v>477.41079854020842</v>
       </c>
-      <c r="AK20">
+      <c r="AK20" s="7">
         <v>78.284486977994632</v>
       </c>
-      <c r="AL20">
-        <v>0</v>
-      </c>
-      <c r="AM20">
+      <c r="AL20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM20" s="7">
         <v>543.5394813488216</v>
       </c>
-      <c r="AN20">
+      <c r="AN20" s="7">
         <v>1522.305733317846</v>
       </c>
-      <c r="AO20">
-        <v>0</v>
-      </c>
-      <c r="AP20">
-        <v>0</v>
-      </c>
-      <c r="AQ20">
+      <c r="AO20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP20" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ20" s="7">
         <v>1680.56445339942</v>
       </c>
-      <c r="AR20">
+      <c r="AR20" s="7">
         <v>1781.338976730937</v>
       </c>
-      <c r="AS20">
+      <c r="AS20" s="7">
         <v>1584.6795486649769</v>
       </c>
-      <c r="AT20">
+      <c r="AT20" s="7">
         <v>164.37586073728869</v>
       </c>
-      <c r="AU20">
+      <c r="AU20" s="7">
         <v>3530.3943861332018</v>
       </c>
-      <c r="AV20">
+      <c r="AV20" s="7">
         <v>377.77865895529823</v>
       </c>
-      <c r="AW20">
+      <c r="AW20" s="7">
         <v>77.668082321496968</v>
       </c>
-      <c r="AX20">
+      <c r="AX20" s="7">
         <v>220.99322861634701</v>
       </c>
-      <c r="AY20">
+      <c r="AY20" s="7">
         <v>229.0097967979425</v>
       </c>
-      <c r="AZ20">
+      <c r="AZ20" s="7">
         <v>861.52781123611669</v>
       </c>
-      <c r="BA20">
+      <c r="BA20" s="7">
         <v>44</v>
       </c>
-      <c r="BB20">
-        <v>0</v>
-      </c>
-      <c r="BC20">
+      <c r="BB20" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC20" s="7">
         <v>231.01005759196661</v>
       </c>
-      <c r="BD20">
+      <c r="BD20" s="7">
         <v>559.57474405449557</v>
       </c>
-      <c r="BE20">
+      <c r="BE20" s="7">
         <v>22.312297334979881</v>
       </c>
-      <c r="BF20">
+      <c r="BF20" s="7">
         <v>1485.093255786162</v>
       </c>
-      <c r="BG20">
+      <c r="BG20" s="7">
         <v>2066.9802971756371</v>
       </c>
-      <c r="BH20">
+      <c r="BH20" s="7">
         <v>99.632139584910178</v>
       </c>
-      <c r="BI20">
+      <c r="BI20" s="7">
         <v>0.61640465649766174</v>
       </c>
     </row>
@@ -9461,181 +9534,182 @@
       <c r="A21" s="2">
         <v>44834</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="7">
         <v>-0.73570844387193512</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="7">
         <v>-1.8752966528686961</v>
       </c>
-      <c r="E21">
+      <c r="D21" s="7"/>
+      <c r="E21" s="7">
         <v>23620.8277944867</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="7">
         <v>9.5910894990538509E-3</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="7">
         <v>4.4052640885094974E-3</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="7">
         <v>5.1858254105443544E-3</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="7">
         <v>15756.430573229991</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="7">
         <v>4.5422175185574343E-3</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="7">
         <v>1572.6694039177321</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="7">
         <v>770.15323465561073</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="7">
         <v>590.68856396221724</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="7">
         <v>537.96274331894881</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="7">
         <v>309.86680125051288</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="7">
         <v>78.099376013654989</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="7">
         <v>5.2654723783140964E-3</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="7">
         <v>2507.3782288671232</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="7">
         <v>7.2325914412192382E-3</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="7">
         <v>7.2325914412192382E-3</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="7">
         <v>7.2325914412192382E-3</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="7">
         <v>5.2654723783140964E-3</v>
       </c>
-      <c r="W21">
+      <c r="W21" s="7">
         <v>7.2325914412192382E-3</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="7">
         <v>7.2325914412192382E-3</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="7">
         <v>7.2325914412192382E-3</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="7">
         <v>951.405590278261</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="7">
         <v>756.68857207813949</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="7">
         <v>1784.9466561610111</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="7">
         <v>44</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="7">
         <v>3550.6585104530609</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="7">
         <v>1924.7170139361881</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="7">
         <v>2368.1049862027739</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="7">
         <v>1630.5014282346669</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="7">
         <v>1668.264498186147</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="7">
         <v>5666.8709126235881</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="7">
         <v>521.72507324518836</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="7">
         <v>78.629350817166724</v>
       </c>
-      <c r="AL21">
-        <v>0</v>
-      </c>
-      <c r="AM21">
+      <c r="AL21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AM21" s="7">
         <v>537.96274331894881</v>
       </c>
-      <c r="AN21">
+      <c r="AN21" s="7">
         <v>1558.2865095482721</v>
       </c>
-      <c r="AO21">
-        <v>0</v>
-      </c>
-      <c r="AP21">
-        <v>0</v>
-      </c>
-      <c r="AQ21">
+      <c r="AO21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AP21" s="7">
+        <v>0</v>
+      </c>
+      <c r="AQ21" s="7">
         <v>1655.7496888137789</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" s="7">
         <v>1802.8644671413069</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" s="7">
         <v>1607.9632156704311</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" s="7">
         <v>168.13445894780881</v>
       </c>
-      <c r="AU21">
+      <c r="AU21" s="7">
         <v>3578.9621417595472</v>
       </c>
-      <c r="AV21">
+      <c r="AV21" s="7">
         <v>421.08414387419691</v>
       </c>
-      <c r="AW21">
+      <c r="AW21" s="7">
         <v>78.010230735371806</v>
       </c>
-      <c r="AX21">
+      <c r="AX21" s="7">
         <v>218.7258287591907</v>
       </c>
-      <c r="AY21">
+      <c r="AY21" s="7">
         <v>226.66014661273931</v>
       </c>
-      <c r="AZ21">
+      <c r="AZ21" s="7">
         <v>869.62094052464352</v>
       </c>
-      <c r="BA21">
+      <c r="BA21" s="7">
         <v>44</v>
       </c>
-      <c r="BB21">
-        <v>0</v>
-      </c>
-      <c r="BC21">
+      <c r="BB21" s="7">
+        <v>0</v>
+      </c>
+      <c r="BC21" s="7">
         <v>268.96732512240908</v>
       </c>
-      <c r="BD21">
+      <c r="BD21" s="7">
         <v>565.24051906146678</v>
       </c>
-      <c r="BE21">
+      <c r="BE21" s="7">
         <v>22.538212564235341</v>
       </c>
-      <c r="BF21">
+      <c r="BF21" s="7">
         <v>1500.130039238338</v>
       </c>
-      <c r="BG21">
+      <c r="BG21" s="7">
         <v>2087.90877086404</v>
       </c>
-      <c r="BH21">
+      <c r="BH21" s="7">
         <v>100.6409293709915</v>
       </c>
-      <c r="BI21">
+      <c r="BI21" s="7">
         <v>0.61912008179492095</v>
       </c>
     </row>
@@ -9648,8 +9722,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{37ECEFD9-EC4E-424C-A4F8-09314C2A4DAD}">
   <dimension ref="A1:BI21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView topLeftCell="AN1" workbookViewId="0">
+      <selection activeCell="BA12" sqref="BA12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
